--- a/Project 2/sp500-companies.xlsx
+++ b/Project 2/sp500-companies.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamas\Documents\GitHub\Udactity_Data_foundations_nanodegree\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91FD084F-247C-4A02-BB4C-516AB9E27180}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B9AE46-2F9E-4506-9F12-702E26276AAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Source" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Source" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="1410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3053" uniqueCount="1413">
   <si>
     <t>Ticker symbol</t>
   </si>
@@ -4256,6 +4260,15 @@
   </si>
   <si>
     <t>S&amp;P 500 Component Stocks - downloaded from https://en.wikipedia.org/wiki/List_of_S%26P_500_companies</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of GICS Sector</t>
   </si>
 </sst>
 </file>
@@ -4308,11 +4321,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4328,6 +4346,6552 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[sp500-companies.xlsx]Sheet2!PivotTable1</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:pattFill prst="pct75">
+              <a:fgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:sysClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:sysClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Consumer Discretionary</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Consumer Staples</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Financials</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Health Care</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Industrials</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Information Technology</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Materials</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Real Estate</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Telecommunication Services</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Utilities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A379-4A75-AAC3-5019B9256CC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37AA129B-8F5E-43E8-AD1D-0F6991D15C38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Stefanovits Tamás" refreshedDate="43451.919565277778" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="505" xr:uid="{27A0F7E4-7B56-404B-95A0-3DC107DDB2EA}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H506" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Ticker symbol" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Security" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="SEC filings" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="GICS Sector" numFmtId="0">
+      <sharedItems count="11">
+        <s v="Industrials"/>
+        <s v="Health Care"/>
+        <s v="Information Technology"/>
+        <s v="Consumer Discretionary"/>
+        <s v="Utilities"/>
+        <s v="Financials"/>
+        <s v="Materials"/>
+        <s v="Real Estate"/>
+        <s v="Consumer Staples"/>
+        <s v="Energy"/>
+        <s v="Telecommunication Services"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="GICS Sub Industry" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Address of Headquarters" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Date first added" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1964-03-31T00:00:00" maxDate="2017-08-09T00:00:00"/>
+    </cacheField>
+    <cacheField name="CIK" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1800" maxValue="1701605"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="505">
+  <r>
+    <s v="MMM"/>
+    <s v="3M Company"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Industrial Conglomerates"/>
+    <s v="St. Paul, Minnesota"/>
+    <m/>
+    <n v="66740"/>
+  </r>
+  <r>
+    <s v="ABT"/>
+    <s v="Abbott Laboratories"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Equipment"/>
+    <s v="North Chicago, Illinois"/>
+    <d v="1964-03-31T00:00:00"/>
+    <n v="1800"/>
+  </r>
+  <r>
+    <s v="ABBV"/>
+    <s v="AbbVie Inc."/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Pharmaceuticals"/>
+    <s v="North Chicago, Illinois"/>
+    <d v="2012-12-31T00:00:00"/>
+    <n v="1551152"/>
+  </r>
+  <r>
+    <s v="ACN"/>
+    <s v="Accenture plc"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="IT Consulting &amp; Other Services"/>
+    <s v="Dublin, Ireland"/>
+    <d v="2011-07-06T00:00:00"/>
+    <n v="1467373"/>
+  </r>
+  <r>
+    <s v="ATVI"/>
+    <s v="Activision Blizzard"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Home Entertainment Software"/>
+    <s v="Santa Monica, California"/>
+    <d v="2015-08-31T00:00:00"/>
+    <n v="718877"/>
+  </r>
+  <r>
+    <s v="AYI"/>
+    <s v="Acuity Brands Inc"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Electrical Components &amp; Equipment"/>
+    <s v="Atlanta, Georgia"/>
+    <d v="2016-05-03T00:00:00"/>
+    <n v="1144215"/>
+  </r>
+  <r>
+    <s v="ADBE"/>
+    <s v="Adobe Systems Inc"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Application Software"/>
+    <s v="San Jose, California"/>
+    <d v="1997-05-05T00:00:00"/>
+    <n v="796343"/>
+  </r>
+  <r>
+    <s v="AMD"/>
+    <s v="Advanced Micro Devices Inc"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Semiconductors"/>
+    <s v="Sunnyvale, California"/>
+    <d v="2017-03-20T00:00:00"/>
+    <n v="2488"/>
+  </r>
+  <r>
+    <s v="AAP"/>
+    <s v="Advance Auto Parts"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Automotive Retail"/>
+    <s v="Roanoke, Virginia"/>
+    <d v="2015-07-09T00:00:00"/>
+    <n v="1158449"/>
+  </r>
+  <r>
+    <s v="AES"/>
+    <s v="AES Corp"/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Independent Power Producers &amp; Energy Traders"/>
+    <s v="Arlington, Virginia"/>
+    <m/>
+    <n v="874761"/>
+  </r>
+  <r>
+    <s v="AET"/>
+    <s v="Aetna Inc"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Managed Health Care"/>
+    <s v="Hartford, Connecticut"/>
+    <d v="1976-06-30T00:00:00"/>
+    <n v="1122304"/>
+  </r>
+  <r>
+    <s v="AMG"/>
+    <s v="Affiliated Managers Group Inc"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Asset Management &amp; Custody Banks"/>
+    <s v="Beverly, Massachusetts"/>
+    <d v="2014-07-01T00:00:00"/>
+    <n v="1004434"/>
+  </r>
+  <r>
+    <s v="AFL"/>
+    <s v="AFLAC Inc"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Life &amp; Health Insurance"/>
+    <s v="Columbus, Georgia"/>
+    <m/>
+    <n v="4977"/>
+  </r>
+  <r>
+    <s v="A"/>
+    <s v="Agilent Technologies Inc"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Equipment"/>
+    <s v="Santa Clara, California"/>
+    <d v="2000-06-05T00:00:00"/>
+    <n v="1090872"/>
+  </r>
+  <r>
+    <s v="APD"/>
+    <s v="Air Products &amp; Chemicals Inc"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Industrial Gases"/>
+    <s v="Allentown, Pennsylvania"/>
+    <d v="1985-04-30T00:00:00"/>
+    <n v="2969"/>
+  </r>
+  <r>
+    <s v="AKAM"/>
+    <s v="Akamai Technologies Inc"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Internet Software &amp; Services"/>
+    <s v="Cambridge, Massachusetts"/>
+    <d v="2007-07-12T00:00:00"/>
+    <n v="1086222"/>
+  </r>
+  <r>
+    <s v="ALK"/>
+    <s v="Alaska Air Group Inc"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Airlines"/>
+    <s v="Seattle, Washington"/>
+    <d v="2016-05-13T00:00:00"/>
+    <n v="766421"/>
+  </r>
+  <r>
+    <s v="ALB"/>
+    <s v="Albemarle Corp"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Specialty Chemicals"/>
+    <s v="Baton Rouge, Louisiana"/>
+    <d v="2016-07-01T00:00:00"/>
+    <n v="915913"/>
+  </r>
+  <r>
+    <s v="ARE"/>
+    <s v="Alexandria Real Estate Equities Inc"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Office REITs"/>
+    <s v="Pasadena, California"/>
+    <d v="2017-03-20T00:00:00"/>
+    <n v="1035443"/>
+  </r>
+  <r>
+    <s v="ALXN"/>
+    <s v="Alexion Pharmaceuticals"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Biotechnology"/>
+    <s v="Cheshire, Connecticut"/>
+    <d v="2012-05-25T00:00:00"/>
+    <n v="899866"/>
+  </r>
+  <r>
+    <s v="ALGN"/>
+    <s v="Align Technology"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Supplies"/>
+    <s v="San Jose, California"/>
+    <d v="2017-06-19T00:00:00"/>
+    <n v="1097149"/>
+  </r>
+  <r>
+    <s v="ALLE"/>
+    <s v="Allegion"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Building Products"/>
+    <s v="Dublin, Ireland"/>
+    <d v="2013-12-02T00:00:00"/>
+    <n v="1579241"/>
+  </r>
+  <r>
+    <s v="AGN"/>
+    <s v="Allergan, Plc"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Pharmaceuticals"/>
+    <s v="Dublin, Ireland"/>
+    <m/>
+    <n v="884629"/>
+  </r>
+  <r>
+    <s v="ADS"/>
+    <s v="Alliance Data Systems"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Data Processing &amp; Outsourced Services"/>
+    <s v="Plano, Texas"/>
+    <d v="2013-12-23T00:00:00"/>
+    <n v="1101215"/>
+  </r>
+  <r>
+    <s v="LNT"/>
+    <s v="Alliant Energy Corp"/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Electric Utilities"/>
+    <s v="Madison, Wisconsin"/>
+    <d v="2016-07-01T00:00:00"/>
+    <n v="352541"/>
+  </r>
+  <r>
+    <s v="ALL"/>
+    <s v="Allstate Corp"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Property &amp; Casualty Insurance"/>
+    <s v="Northfield Township, Illinois"/>
+    <m/>
+    <n v="899051"/>
+  </r>
+  <r>
+    <s v="GOOGL"/>
+    <s v="Alphabet Inc Class A"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Internet Software &amp; Services"/>
+    <s v="Mountain View, California"/>
+    <d v="2014-04-03T00:00:00"/>
+    <n v="1652044"/>
+  </r>
+  <r>
+    <s v="GOOG"/>
+    <s v="Alphabet Inc Class C"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Internet Software &amp; Services"/>
+    <s v="Mountain View, California"/>
+    <m/>
+    <n v="1652044"/>
+  </r>
+  <r>
+    <s v="MO"/>
+    <s v="Altria Group Inc"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Tobacco"/>
+    <s v="Richmond, Virginia"/>
+    <m/>
+    <n v="764180"/>
+  </r>
+  <r>
+    <s v="AMZN"/>
+    <s v="Amazon.com Inc"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Internet &amp; Direct Marketing Retail"/>
+    <s v="Seattle, Washington"/>
+    <d v="2005-11-18T00:00:00"/>
+    <n v="1018724"/>
+  </r>
+  <r>
+    <s v="AEE"/>
+    <s v="Ameren Corp"/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Multi-Utilities"/>
+    <s v="St. Louis, Missouri"/>
+    <d v="1991-09-19T00:00:00"/>
+    <n v="1002910"/>
+  </r>
+  <r>
+    <s v="AAL"/>
+    <s v="American Airlines Group"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Airlines"/>
+    <s v="Fort Worth, Texas"/>
+    <d v="2015-03-23T00:00:00"/>
+    <n v="6201"/>
+  </r>
+  <r>
+    <s v="AEP"/>
+    <s v="American Electric Power"/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Electric Utilities"/>
+    <s v="Columbus, Ohio"/>
+    <m/>
+    <n v="4904"/>
+  </r>
+  <r>
+    <s v="AXP"/>
+    <s v="American Express Co"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Consumer Finance"/>
+    <s v="New York, New York"/>
+    <d v="1976-06-30T00:00:00"/>
+    <n v="4962"/>
+  </r>
+  <r>
+    <s v="AIG"/>
+    <s v="American International Group, Inc."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Property &amp; Casualty Insurance"/>
+    <s v="New York, New York"/>
+    <d v="1980-03-31T00:00:00"/>
+    <n v="5272"/>
+  </r>
+  <r>
+    <s v="AMT"/>
+    <s v="American Tower Corp A"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Specialized REITs"/>
+    <s v="Boston, Massachusetts"/>
+    <d v="2007-11-19T00:00:00"/>
+    <n v="1053507"/>
+  </r>
+  <r>
+    <s v="AWK"/>
+    <s v="American Water Works Company Inc"/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Water Utilities"/>
+    <s v="Voorhees, New Jersey"/>
+    <d v="2016-03-04T00:00:00"/>
+    <n v="1410636"/>
+  </r>
+  <r>
+    <s v="AMP"/>
+    <s v="Ameriprise Financial"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Asset Management &amp; Custody Banks"/>
+    <s v="Minneapolis, Minnesota"/>
+    <d v="2005-10-03T00:00:00"/>
+    <n v="820027"/>
+  </r>
+  <r>
+    <s v="ABC"/>
+    <s v="AmerisourceBergen Corp"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Distributors"/>
+    <s v="Chesterbrook, Pennsylvania"/>
+    <d v="2001-08-30T00:00:00"/>
+    <n v="1140859"/>
+  </r>
+  <r>
+    <s v="AME"/>
+    <s v="AMETEK Inc"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Electrical Components &amp; Equipment"/>
+    <s v="Berwyn, Pennsylvania"/>
+    <d v="2013-09-23T00:00:00"/>
+    <n v="1037868"/>
+  </r>
+  <r>
+    <s v="AMGN"/>
+    <s v="Amgen Inc"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Biotechnology"/>
+    <s v="Thousand Oaks, California"/>
+    <d v="1992-01-02T00:00:00"/>
+    <n v="318154"/>
+  </r>
+  <r>
+    <s v="APH"/>
+    <s v="Amphenol Corp"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Electronic Components"/>
+    <s v="Wallingford, Connecticut"/>
+    <d v="2008-09-30T00:00:00"/>
+    <n v="820313"/>
+  </r>
+  <r>
+    <s v="APC"/>
+    <s v="Anadarko Petroleum Corp"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Exploration &amp; Production"/>
+    <s v="The Woodlands, Texas"/>
+    <m/>
+    <n v="773910"/>
+  </r>
+  <r>
+    <s v="ADI"/>
+    <s v="Analog Devices, Inc."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Semiconductors"/>
+    <s v="Norwood, Massachusetts"/>
+    <m/>
+    <n v="6281"/>
+  </r>
+  <r>
+    <s v="ANDV"/>
+    <s v="Andeavor"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Refining &amp; Marketing"/>
+    <s v="San Antonio, Texas"/>
+    <d v="2007-09-27T00:00:00"/>
+    <n v="50104"/>
+  </r>
+  <r>
+    <s v="ANSS"/>
+    <s v="ANSYS Inc"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Application Software"/>
+    <s v="Canonsburg, Pennsylvania"/>
+    <d v="2017-06-19T00:00:00"/>
+    <n v="1013462"/>
+  </r>
+  <r>
+    <s v="ANTM"/>
+    <s v="Anthem Inc."/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Managed Health Care"/>
+    <s v="Indianapolis, Indiana"/>
+    <m/>
+    <n v="1156039"/>
+  </r>
+  <r>
+    <s v="AON"/>
+    <s v="Aon plc"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Insurance Brokers"/>
+    <s v="London, United Kingdom"/>
+    <m/>
+    <n v="315293"/>
+  </r>
+  <r>
+    <s v="AOS"/>
+    <s v="A.O. Smith Corp"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Building Products"/>
+    <s v="Milwaukee, Wisconsin"/>
+    <d v="2017-07-26T00:00:00"/>
+    <n v="91142"/>
+  </r>
+  <r>
+    <s v="APA"/>
+    <s v="Apache Corporation"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Exploration &amp; Production"/>
+    <s v="Houston, Texas"/>
+    <m/>
+    <n v="6769"/>
+  </r>
+  <r>
+    <s v="AIV"/>
+    <s v="Apartment Investment &amp; Management"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Residential REITs"/>
+    <s v="Denver, Colorado"/>
+    <m/>
+    <n v="922864"/>
+  </r>
+  <r>
+    <s v="AAPL"/>
+    <s v="Apple Inc."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Technology Hardware, Storage &amp; Peripherals"/>
+    <s v="Cupertino, California"/>
+    <d v="1982-11-30T00:00:00"/>
+    <n v="320193"/>
+  </r>
+  <r>
+    <s v="AMAT"/>
+    <s v="Applied Materials Inc"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Semiconductor Equipment"/>
+    <s v="Santa Clara, California"/>
+    <m/>
+    <n v="6951"/>
+  </r>
+  <r>
+    <s v="ADM"/>
+    <s v="Archer-Daniels-Midland Co"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Agricultural Products"/>
+    <s v="Decatur, Illinois"/>
+    <d v="1981-07-29T00:00:00"/>
+    <n v="7084"/>
+  </r>
+  <r>
+    <s v="ARNC"/>
+    <s v="Arconic Inc"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Aerospace &amp; Defense"/>
+    <s v="New York, New York"/>
+    <d v="1964-03-31T00:00:00"/>
+    <n v="4281"/>
+  </r>
+  <r>
+    <s v="AJG"/>
+    <s v="Arthur J. Gallagher &amp; Co."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Insurance Brokers"/>
+    <s v="Itasca, Illinois"/>
+    <d v="2016-05-31T00:00:00"/>
+    <n v="354190"/>
+  </r>
+  <r>
+    <s v="AIZ"/>
+    <s v="Assurant Inc"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Multi-line Insurance"/>
+    <s v="New York, New York"/>
+    <d v="2007-04-10T00:00:00"/>
+    <n v="1267238"/>
+  </r>
+  <r>
+    <s v="T"/>
+    <s v="AT&amp;T Inc"/>
+    <s v="reports"/>
+    <x v="10"/>
+    <s v="Integrated Telecommunication Services"/>
+    <s v="Dallas, Texas"/>
+    <d v="1983-11-30T00:00:00"/>
+    <n v="732717"/>
+  </r>
+  <r>
+    <s v="ADSK"/>
+    <s v="Autodesk Inc"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Application Software"/>
+    <s v="San Rafael, California"/>
+    <d v="1989-12-01T00:00:00"/>
+    <n v="769397"/>
+  </r>
+  <r>
+    <s v="ADP"/>
+    <s v="Automatic Data Processing"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Internet Software &amp; Services"/>
+    <s v="Roseland, New Jersey"/>
+    <d v="1981-03-31T00:00:00"/>
+    <n v="8670"/>
+  </r>
+  <r>
+    <s v="AZO"/>
+    <s v="AutoZone Inc"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Specialty Stores"/>
+    <s v="Memphis, Tennessee"/>
+    <m/>
+    <n v="866787"/>
+  </r>
+  <r>
+    <s v="AVB"/>
+    <s v="AvalonBay Communities, Inc."/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Residential REITs"/>
+    <s v="Arlington, Virginia[3]"/>
+    <d v="2007-01-10T00:00:00"/>
+    <n v="915912"/>
+  </r>
+  <r>
+    <s v="AVY"/>
+    <s v="Avery Dennison Corp"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Paper Packaging"/>
+    <s v="Glendale, California"/>
+    <d v="1987-12-31T00:00:00"/>
+    <n v="8818"/>
+  </r>
+  <r>
+    <s v="BHGE"/>
+    <s v="Baker Hughes, a GE Company"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Equipment &amp; Services"/>
+    <s v="Houston, Texas"/>
+    <m/>
+    <n v="1701605"/>
+  </r>
+  <r>
+    <s v="BLL"/>
+    <s v="Ball Corp"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Metal &amp; Glass Containers"/>
+    <s v="Broomfield, Colorado"/>
+    <d v="1984-10-31T00:00:00"/>
+    <n v="9389"/>
+  </r>
+  <r>
+    <s v="BAC"/>
+    <s v="Bank of America Corp"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Diversified Banks"/>
+    <s v="Charlotte, North Carolina"/>
+    <d v="1976-06-30T00:00:00"/>
+    <n v="70858"/>
+  </r>
+  <r>
+    <s v="BK"/>
+    <s v="The Bank of New York Mellon Corp."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Asset Management &amp; Custody Banks"/>
+    <s v="New York, New York"/>
+    <m/>
+    <n v="1390777"/>
+  </r>
+  <r>
+    <s v="BCR"/>
+    <s v="Bard (C.R.) Inc."/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Equipment"/>
+    <s v="Murray Hill, New Jersey"/>
+    <d v="1975-06-30T00:00:00"/>
+    <n v="9892"/>
+  </r>
+  <r>
+    <s v="BAX"/>
+    <s v="Baxter International Inc."/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Equipment"/>
+    <s v="Deerfield, Illinois"/>
+    <d v="1972-09-30T00:00:00"/>
+    <n v="10456"/>
+  </r>
+  <r>
+    <s v="BBT"/>
+    <s v="BB&amp;T Corporation"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Regional Banks"/>
+    <s v="Winston-Salem, North Carolina"/>
+    <m/>
+    <n v="92230"/>
+  </r>
+  <r>
+    <s v="BDX"/>
+    <s v="Becton Dickinson"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Equipment"/>
+    <s v="Franklin Lakes, New Jersey"/>
+    <d v="1972-09-30T00:00:00"/>
+    <n v="10795"/>
+  </r>
+  <r>
+    <s v="BRK.B"/>
+    <s v="Berkshire Hathaway"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Multi-Sector Holdings"/>
+    <s v="Omaha, Nebraska"/>
+    <d v="2010-02-16T00:00:00"/>
+    <n v="1067983"/>
+  </r>
+  <r>
+    <s v="BBY"/>
+    <s v="Best Buy Co. Inc."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Computer &amp; Electronics Retail"/>
+    <s v="Richfield, Minnesota"/>
+    <d v="1999-06-29T00:00:00"/>
+    <n v="764478"/>
+  </r>
+  <r>
+    <s v="BIIB"/>
+    <s v="Biogen Inc."/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Biotechnology"/>
+    <s v="Weston, Massachusetts"/>
+    <m/>
+    <n v="875045"/>
+  </r>
+  <r>
+    <s v="BLK"/>
+    <s v="BlackRock"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Asset Management &amp; Custody Banks"/>
+    <s v="New York, New York"/>
+    <d v="2011-04-04T00:00:00"/>
+    <n v="1364742"/>
+  </r>
+  <r>
+    <s v="HRB"/>
+    <s v="Block H&amp;R"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Consumer Finance"/>
+    <s v="Kansas City, Missouri"/>
+    <d v="1986-11-30T00:00:00"/>
+    <n v="12659"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <s v="Boeing Company"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Aerospace &amp; Defense"/>
+    <s v="Chicago, Illinois"/>
+    <m/>
+    <n v="12927"/>
+  </r>
+  <r>
+    <s v="BWA"/>
+    <s v="BorgWarner"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Auto Parts &amp; Equipment"/>
+    <s v="Auburn Hills, Michigan"/>
+    <d v="2011-12-19T00:00:00"/>
+    <n v="908255"/>
+  </r>
+  <r>
+    <s v="BXP"/>
+    <s v="Boston Properties"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Office REITs"/>
+    <s v="Boston, Massachusetts"/>
+    <d v="2006-04-03T00:00:00"/>
+    <n v="1037540"/>
+  </r>
+  <r>
+    <s v="BSX"/>
+    <s v="Boston Scientific"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Equipment"/>
+    <s v="Marlborough, Massachusetts[4]"/>
+    <d v="1995-02-24T00:00:00"/>
+    <n v="885725"/>
+  </r>
+  <r>
+    <s v="BHF"/>
+    <s v="Brighthouse Financial Inc"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Life &amp; Health Insurance"/>
+    <s v="Charlotte, North Carolina"/>
+    <d v="2017-08-08T00:00:00"/>
+    <n v="1685040"/>
+  </r>
+  <r>
+    <s v="BMY"/>
+    <s v="Bristol-Myers Squibb"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Distributors"/>
+    <s v="New York, New York"/>
+    <m/>
+    <n v="14272"/>
+  </r>
+  <r>
+    <s v="AVGO"/>
+    <s v="Broadcom"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Semiconductors"/>
+    <s v="San Jose, California"/>
+    <d v="2014-05-08T00:00:00"/>
+    <n v="1441634"/>
+  </r>
+  <r>
+    <s v="BF.B"/>
+    <s v="Brown-Forman Corp."/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Distillers &amp; Vintners"/>
+    <s v="Louisville, Kentucky"/>
+    <d v="1982-10-31T00:00:00"/>
+    <n v="14693"/>
+  </r>
+  <r>
+    <s v="CHRW"/>
+    <s v="C. H. Robinson Worldwide"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Air Freight &amp; Logistics"/>
+    <s v="Eden Prairie, Minnesota"/>
+    <d v="2007-03-02T00:00:00"/>
+    <n v="1043277"/>
+  </r>
+  <r>
+    <s v="CA"/>
+    <s v="CA, Inc."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Systems Software"/>
+    <s v="Islandia, New York"/>
+    <d v="1987-07-31T00:00:00"/>
+    <n v="356028"/>
+  </r>
+  <r>
+    <s v="COG"/>
+    <s v="Cabot Oil &amp; Gas"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Exploration &amp; Production"/>
+    <s v="Houston, Texas"/>
+    <d v="2008-06-23T00:00:00"/>
+    <n v="858470"/>
+  </r>
+  <r>
+    <s v="CPB"/>
+    <s v="Campbell Soup"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Packaged Foods &amp; Meats"/>
+    <s v="Camden, New Jersey"/>
+    <m/>
+    <n v="16732"/>
+  </r>
+  <r>
+    <s v="COF"/>
+    <s v="Capital One Financial"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Consumer Finance"/>
+    <s v="Tysons Corner, Virginia"/>
+    <m/>
+    <n v="927628"/>
+  </r>
+  <r>
+    <s v="CAH"/>
+    <s v="Cardinal Health Inc."/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Distributors"/>
+    <s v="Dublin, Ohio"/>
+    <m/>
+    <n v="721371"/>
+  </r>
+  <r>
+    <s v="CBOE"/>
+    <s v="CBOE Holdings"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Financial Exchanges &amp; Data"/>
+    <s v="Chicago, Illinois"/>
+    <d v="2017-03-01T00:00:00"/>
+    <n v="1374310"/>
+  </r>
+  <r>
+    <s v="KMX"/>
+    <s v="Carmax Inc"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Specialty Stores"/>
+    <s v="Richmond, Virginia"/>
+    <d v="2010-06-28T00:00:00"/>
+    <n v="1170010"/>
+  </r>
+  <r>
+    <s v="CCL"/>
+    <s v="Carnival Corp."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Hotels, Resorts &amp; Cruise Lines"/>
+    <s v="Miami, Florida"/>
+    <m/>
+    <n v="815097"/>
+  </r>
+  <r>
+    <s v="CAT"/>
+    <s v="Caterpillar Inc."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Construction Machinery &amp; Heavy Trucks"/>
+    <s v="Peoria, Illinois"/>
+    <m/>
+    <n v="18230"/>
+  </r>
+  <r>
+    <s v="CBG"/>
+    <s v="CBRE Group"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Real Estate Services"/>
+    <s v="Los Angeles, California"/>
+    <d v="2006-11-10T00:00:00"/>
+    <n v="1138118"/>
+  </r>
+  <r>
+    <s v="CBS"/>
+    <s v="CBS Corp."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Broadcasting"/>
+    <s v="New York, New York"/>
+    <d v="1994-09-01T00:00:00"/>
+    <n v="813828"/>
+  </r>
+  <r>
+    <s v="CELG"/>
+    <s v="Celgene Corp."/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Biotechnology"/>
+    <s v="Summit, New Jersey"/>
+    <d v="2006-11-06T00:00:00"/>
+    <n v="816284"/>
+  </r>
+  <r>
+    <s v="CNC"/>
+    <s v="Centene Corporation"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Managed Health Care"/>
+    <s v="St Louis, Missouri"/>
+    <d v="2016-03-30T00:00:00"/>
+    <n v="1071739"/>
+  </r>
+  <r>
+    <s v="CNP"/>
+    <s v="CenterPoint Energy"/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Multi-Utilities"/>
+    <s v="Houston, Texas"/>
+    <d v="1985-07-31T00:00:00"/>
+    <n v="1130310"/>
+  </r>
+  <r>
+    <s v="CTL"/>
+    <s v="CenturyLink Inc"/>
+    <s v="reports"/>
+    <x v="10"/>
+    <s v="Integrated Telecommunication Services"/>
+    <s v="Monroe, Louisiana"/>
+    <m/>
+    <n v="18926"/>
+  </r>
+  <r>
+    <s v="CERN"/>
+    <s v="Cerner"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Technology"/>
+    <s v="North Kansas City, Missouri"/>
+    <d v="2010-04-30T00:00:00"/>
+    <n v="804753"/>
+  </r>
+  <r>
+    <s v="CF"/>
+    <s v="CF Industries Holdings Inc"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Fertilizers &amp; Agricultural Chemicals"/>
+    <s v="Deerfield, Illinois"/>
+    <d v="2008-08-27T00:00:00"/>
+    <n v="1324404"/>
+  </r>
+  <r>
+    <s v="SCHW"/>
+    <s v="Charles Schwab Corporation"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Investment Banking &amp; Brokerage"/>
+    <s v="San Francisco, California"/>
+    <m/>
+    <n v="316709"/>
+  </r>
+  <r>
+    <s v="CHTR"/>
+    <s v="Charter Communications"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Cable &amp; Satellite"/>
+    <s v="Stamford, Connecticut"/>
+    <d v="2016-09-08T00:00:00"/>
+    <n v="1091667"/>
+  </r>
+  <r>
+    <s v="CHK"/>
+    <s v="Chesapeake Energy"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Exploration &amp; Production"/>
+    <s v="Oklahoma City, Oklahoma"/>
+    <m/>
+    <n v="895126"/>
+  </r>
+  <r>
+    <s v="CVX"/>
+    <s v="Chevron Corp."/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Integrated Oil &amp; Gas"/>
+    <s v="San Ramon, California"/>
+    <m/>
+    <n v="93410"/>
+  </r>
+  <r>
+    <s v="CMG"/>
+    <s v="Chipotle Mexican Grill"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Restaurants"/>
+    <s v="Denver, Colorado"/>
+    <d v="2011-04-28T00:00:00"/>
+    <n v="1058090"/>
+  </r>
+  <r>
+    <s v="CB"/>
+    <s v="Chubb Limited"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Property &amp; Casualty Insurance"/>
+    <s v="Zurich, Switzerland"/>
+    <d v="2010-07-15T00:00:00"/>
+    <n v="896159"/>
+  </r>
+  <r>
+    <s v="CHD"/>
+    <s v="Church &amp; Dwight"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Household Products"/>
+    <s v="Ewing, New Jersey"/>
+    <d v="2015-12-29T00:00:00"/>
+    <n v="313927"/>
+  </r>
+  <r>
+    <s v="CI"/>
+    <s v="CIGNA Corp."/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Managed Health Care"/>
+    <s v="Philadelphia, Pennsylvania"/>
+    <d v="1976-06-30T00:00:00"/>
+    <n v="701221"/>
+  </r>
+  <r>
+    <s v="XEC"/>
+    <s v="Cimarex Energy"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Exploration &amp; Production"/>
+    <s v="Denver, Colorado"/>
+    <d v="2014-06-21T00:00:00"/>
+    <n v="1168054"/>
+  </r>
+  <r>
+    <s v="CINF"/>
+    <s v="Cincinnati Financial"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Property &amp; Casualty Insurance"/>
+    <s v="Fairfield, Ohio"/>
+    <m/>
+    <n v="20286"/>
+  </r>
+  <r>
+    <s v="CTAS"/>
+    <s v="Cintas Corporation"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Diversified Support Services"/>
+    <s v="Mason, Ohio"/>
+    <d v="2001-03-01T00:00:00"/>
+    <n v="723254"/>
+  </r>
+  <r>
+    <s v="CSCO"/>
+    <s v="Cisco Systems"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Communications Equipment"/>
+    <s v="San Jose, California"/>
+    <d v="1993-12-01T00:00:00"/>
+    <n v="858877"/>
+  </r>
+  <r>
+    <s v="C"/>
+    <s v="Citigroup Inc."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Diversified Banks"/>
+    <s v="New York, New York"/>
+    <d v="1988-05-31T00:00:00"/>
+    <n v="831001"/>
+  </r>
+  <r>
+    <s v="CFG"/>
+    <s v="Citizens Financial Group"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Regional Banks"/>
+    <s v="Providence, Rhode Island"/>
+    <d v="2016-01-29T00:00:00"/>
+    <n v="759944"/>
+  </r>
+  <r>
+    <s v="CTXS"/>
+    <s v="Citrix Systems"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Internet Software &amp; Services"/>
+    <s v="Fort Lauderdale, Florida"/>
+    <m/>
+    <n v="877890"/>
+  </r>
+  <r>
+    <s v="CLX"/>
+    <s v="The Clorox Company"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Household Products"/>
+    <s v="Oakland, California"/>
+    <d v="1969-03-31T00:00:00"/>
+    <n v="21076"/>
+  </r>
+  <r>
+    <s v="CME"/>
+    <s v="CME Group Inc."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Financial Exchanges &amp; Data"/>
+    <s v="Chicago, Illinois"/>
+    <m/>
+    <n v="1156375"/>
+  </r>
+  <r>
+    <s v="CMS"/>
+    <s v="CMS Energy"/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Multi-Utilities"/>
+    <s v="Jackson, Michigan"/>
+    <m/>
+    <n v="811156"/>
+  </r>
+  <r>
+    <s v="COH"/>
+    <s v="Coach Inc."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Apparel, Accessories &amp; Luxury Goods"/>
+    <s v="New York, New York"/>
+    <m/>
+    <n v="1116132"/>
+  </r>
+  <r>
+    <s v="KO"/>
+    <s v="Coca-Cola Company (The)"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Soft Drinks"/>
+    <s v="Atlanta, Georgia"/>
+    <m/>
+    <n v="21344"/>
+  </r>
+  <r>
+    <s v="CTSH"/>
+    <s v="Cognizant Technology Solutions"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="IT Consulting &amp; Other Services"/>
+    <s v="Teaneck, New Jersey"/>
+    <d v="2006-11-17T00:00:00"/>
+    <n v="1058290"/>
+  </r>
+  <r>
+    <s v="CL"/>
+    <s v="Colgate-Palmolive"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Household Products"/>
+    <s v="New York, New York"/>
+    <m/>
+    <n v="21665"/>
+  </r>
+  <r>
+    <s v="CMCSA"/>
+    <s v="Comcast Corp."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Cable &amp; Satellite"/>
+    <s v="Philadelphia, Pennsylvania"/>
+    <d v="2015-09-18T00:00:00"/>
+    <n v="1166691"/>
+  </r>
+  <r>
+    <s v="CMA"/>
+    <s v="Comerica Inc."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Diversified Banks"/>
+    <s v="Dallas, Texas"/>
+    <m/>
+    <n v="28412"/>
+  </r>
+  <r>
+    <s v="CAG"/>
+    <s v="Conagra Brands"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Packaged Foods &amp; Meats"/>
+    <s v="Chicago, Illinois"/>
+    <d v="1983-08-31T00:00:00"/>
+    <n v="23217"/>
+  </r>
+  <r>
+    <s v="CXO"/>
+    <s v="Concho Resources"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Exploration &amp; Production"/>
+    <s v="Midland, Texas"/>
+    <d v="2016-02-22T00:00:00"/>
+    <n v="1358071"/>
+  </r>
+  <r>
+    <s v="COP"/>
+    <s v="ConocoPhillips"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Exploration &amp; Production"/>
+    <s v="Houston, Texas"/>
+    <m/>
+    <n v="1163165"/>
+  </r>
+  <r>
+    <s v="ED"/>
+    <s v="Consolidated Edison"/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Electric Utilities"/>
+    <s v="New York, New York"/>
+    <m/>
+    <n v="1047862"/>
+  </r>
+  <r>
+    <s v="STZ"/>
+    <s v="Constellation Brands"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Distillers &amp; Vintners"/>
+    <s v="Victor, New York"/>
+    <d v="2005-07-05T00:00:00"/>
+    <n v="16918"/>
+  </r>
+  <r>
+    <s v="COO"/>
+    <s v="The Cooper Companies"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Supplies"/>
+    <s v="Pleasanton, California"/>
+    <d v="2016-09-23T00:00:00"/>
+    <n v="711404"/>
+  </r>
+  <r>
+    <s v="GLW"/>
+    <s v="Corning Inc."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Electronic Components"/>
+    <s v="Corning, New York"/>
+    <m/>
+    <n v="24741"/>
+  </r>
+  <r>
+    <s v="COST"/>
+    <s v="Costco Wholesale Corp."/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Hypermarkets &amp; Super Centers"/>
+    <s v="Issaquah, Washington"/>
+    <d v="1993-10-01T00:00:00"/>
+    <n v="909832"/>
+  </r>
+  <r>
+    <s v="COTY"/>
+    <s v="Coty, Inc"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Personal Products"/>
+    <s v="New York, NY"/>
+    <d v="2016-10-03T00:00:00"/>
+    <n v="1024305"/>
+  </r>
+  <r>
+    <s v="CCI"/>
+    <s v="Crown Castle International Corp."/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Specialized REITs"/>
+    <s v="Houston, Texas"/>
+    <d v="2012-03-14T00:00:00"/>
+    <n v="1051470"/>
+  </r>
+  <r>
+    <s v="CSRA"/>
+    <s v="CSRA Inc."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="IT Consulting &amp; Other Services"/>
+    <s v="Falls Church, Virginia"/>
+    <d v="2015-12-01T00:00:00"/>
+    <n v="1646383"/>
+  </r>
+  <r>
+    <s v="CSX"/>
+    <s v="CSX Corp."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Railroads"/>
+    <s v="Jacksonville, Florida"/>
+    <d v="1967-09-30T00:00:00"/>
+    <n v="277948"/>
+  </r>
+  <r>
+    <s v="CMI"/>
+    <s v="Cummins Inc."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Industrial Machinery"/>
+    <s v="Columbus, Indiana"/>
+    <d v="1965-03-31T00:00:00"/>
+    <n v="26172"/>
+  </r>
+  <r>
+    <s v="CVS"/>
+    <s v="CVS Health"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Drug Retail"/>
+    <s v="Woonsocket, Rhode Island"/>
+    <m/>
+    <n v="64803"/>
+  </r>
+  <r>
+    <s v="DHI"/>
+    <s v="D. R. Horton"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Homebuilding"/>
+    <s v="Fort Worth, Texas"/>
+    <m/>
+    <n v="882184"/>
+  </r>
+  <r>
+    <s v="DHR"/>
+    <s v="Danaher Corp."/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Equipment"/>
+    <s v="Washington, D.C."/>
+    <m/>
+    <n v="313616"/>
+  </r>
+  <r>
+    <s v="DRI"/>
+    <s v="Darden Restaurants"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Restaurants"/>
+    <s v="Orlando, Florida"/>
+    <m/>
+    <n v="940944"/>
+  </r>
+  <r>
+    <s v="DVA"/>
+    <s v="DaVita Inc."/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Facilities"/>
+    <s v="Denver, Colorado"/>
+    <d v="2008-07-31T00:00:00"/>
+    <n v="927066"/>
+  </r>
+  <r>
+    <s v="DE"/>
+    <s v="Deere &amp; Co."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Agricultural &amp; Farm Machinery"/>
+    <s v="Moline, Illinois"/>
+    <m/>
+    <n v="315189"/>
+  </r>
+  <r>
+    <s v="DLPH"/>
+    <s v="Delphi Automotive PLC"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Auto Parts &amp; Equipment"/>
+    <s v="Gillingham, Kent, United Kingdom"/>
+    <d v="2012-12-24T00:00:00"/>
+    <n v="1521332"/>
+  </r>
+  <r>
+    <s v="DAL"/>
+    <s v="Delta Air Lines Inc."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Airlines"/>
+    <s v="Atlanta, Georgia"/>
+    <d v="2013-09-11T00:00:00"/>
+    <n v="27904"/>
+  </r>
+  <r>
+    <s v="XRAY"/>
+    <s v="Dentsply Sirona"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Supplies"/>
+    <s v="York, Pennsylvania"/>
+    <d v="2008-11-14T00:00:00"/>
+    <n v="818479"/>
+  </r>
+  <r>
+    <s v="DVN"/>
+    <s v="Devon Energy Corp."/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Exploration &amp; Production"/>
+    <s v="Oklahoma City, Oklahoma"/>
+    <d v="2000-08-30T00:00:00"/>
+    <n v="1090012"/>
+  </r>
+  <r>
+    <s v="DLR"/>
+    <s v="Digital Realty Trust Inc"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Specialized REITs"/>
+    <s v="San Francisco, California"/>
+    <d v="2016-05-18T00:00:00"/>
+    <n v="1297996"/>
+  </r>
+  <r>
+    <s v="DFS"/>
+    <s v="Discover Financial Services"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Consumer Finance"/>
+    <s v="Riverwoods, Illinois"/>
+    <d v="2007-07-02T00:00:00"/>
+    <n v="1393612"/>
+  </r>
+  <r>
+    <s v="DISCA"/>
+    <s v="Discovery Communications-A"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Cable &amp; Satellite"/>
+    <s v="Silver Spring, Maryland"/>
+    <d v="2010-03-01T00:00:00"/>
+    <n v="1437107"/>
+  </r>
+  <r>
+    <s v="DISCK"/>
+    <s v="Discovery Communications-C"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Cable &amp; Satellite"/>
+    <s v="Silver Spring, Maryland"/>
+    <d v="2014-08-07T00:00:00"/>
+    <n v="1437107"/>
+  </r>
+  <r>
+    <s v="DISH"/>
+    <s v="Dish Network"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Cable &amp; Satellite"/>
+    <s v="Meridian, Colorado"/>
+    <d v="2017-03-13T00:00:00"/>
+    <n v="1001082"/>
+  </r>
+  <r>
+    <s v="DG"/>
+    <s v="Dollar General"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="General Merchandise Stores"/>
+    <s v="Goodlettsville, Tennessee"/>
+    <d v="2012-12-03T00:00:00"/>
+    <n v="29534"/>
+  </r>
+  <r>
+    <s v="DLTR"/>
+    <s v="Dollar Tree"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="General Merchandise Stores"/>
+    <s v="Chesapeake, Virginia"/>
+    <d v="2011-12-19T00:00:00"/>
+    <n v="935703"/>
+  </r>
+  <r>
+    <s v="D"/>
+    <s v="Dominion Energy"/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Electric Utilities"/>
+    <s v="Richmond, Virginia"/>
+    <m/>
+    <n v="715957"/>
+  </r>
+  <r>
+    <s v="DOV"/>
+    <s v="Dover Corp."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Industrial Machinery"/>
+    <s v="Downers Grove, Illinois"/>
+    <d v="1985-10-31T00:00:00"/>
+    <n v="29905"/>
+  </r>
+  <r>
+    <s v="DOW"/>
+    <s v="Dow Chemical"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Diversified Chemicals"/>
+    <s v="Midland, Michigan"/>
+    <m/>
+    <n v="29915"/>
+  </r>
+  <r>
+    <s v="DPS"/>
+    <s v="Dr Pepper Snapple Group"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Soft Drinks"/>
+    <s v="Plano, Texas"/>
+    <d v="2008-10-07T00:00:00"/>
+    <n v="1418135"/>
+  </r>
+  <r>
+    <s v="DTE"/>
+    <s v="DTE Energy Co."/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Multi-Utilities"/>
+    <s v="Detroit, Michigan"/>
+    <m/>
+    <n v="936340"/>
+  </r>
+  <r>
+    <s v="DRE"/>
+    <s v="Duke Realty Corp"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Industrial REITs"/>
+    <s v="Indianapolis, Indiana"/>
+    <d v="2017-07-26T00:00:00"/>
+    <n v="783280"/>
+  </r>
+  <r>
+    <s v="DD"/>
+    <s v="Du Pont (E.I.)"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Diversified Chemicals"/>
+    <s v="Wilmington, Delaware"/>
+    <m/>
+    <n v="30554"/>
+  </r>
+  <r>
+    <s v="DUK"/>
+    <s v="Duke Energy"/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Electric Utilities"/>
+    <s v="Charlotte, North Carolina"/>
+    <d v="1976-06-30T00:00:00"/>
+    <n v="1326160"/>
+  </r>
+  <r>
+    <s v="DXC"/>
+    <s v="DXC Technology"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="IT Consulting &amp; Other Services"/>
+    <s v="Tysons Corner, Virginia"/>
+    <d v="2017-04-04T00:00:00"/>
+    <n v="1688568"/>
+  </r>
+  <r>
+    <s v="ETFC"/>
+    <s v="E*Trade"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Investment Banking &amp; Brokerage"/>
+    <s v="New York, New York"/>
+    <d v="2004-03-31T00:00:00"/>
+    <n v="1015780"/>
+  </r>
+  <r>
+    <s v="EMN"/>
+    <s v="Eastman Chemical"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Diversified Chemicals"/>
+    <s v="Kingsport, Tennessee"/>
+    <d v="1994-01-01T00:00:00"/>
+    <n v="915389"/>
+  </r>
+  <r>
+    <s v="ETN"/>
+    <s v="Eaton Corporation"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Electrical Components &amp; Equipment"/>
+    <s v="Dublin, Ireland"/>
+    <m/>
+    <n v="1551182"/>
+  </r>
+  <r>
+    <s v="EBAY"/>
+    <s v="eBay Inc."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Internet Software &amp; Services"/>
+    <s v="San Jose, California"/>
+    <m/>
+    <n v="1065088"/>
+  </r>
+  <r>
+    <s v="ECL"/>
+    <s v="Ecolab Inc."/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Specialty Chemicals"/>
+    <s v="St. Paul, Minnesota"/>
+    <d v="1989-01-31T00:00:00"/>
+    <n v="31462"/>
+  </r>
+  <r>
+    <s v="EIX"/>
+    <s v="Edison Int'l"/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Electric Utilities"/>
+    <s v="Rosemead, California"/>
+    <m/>
+    <n v="827052"/>
+  </r>
+  <r>
+    <s v="EW"/>
+    <s v="Edwards Lifesciences"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Equipment"/>
+    <s v="Irvine, California"/>
+    <d v="2011-04-01T00:00:00"/>
+    <n v="1099800"/>
+  </r>
+  <r>
+    <s v="EA"/>
+    <s v="Electronic Arts"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Home Entertainment Software"/>
+    <s v="Redwood City, California"/>
+    <d v="2002-07-22T00:00:00"/>
+    <n v="712515"/>
+  </r>
+  <r>
+    <s v="EMR"/>
+    <s v="Emerson Electric Company"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Electrical Components &amp; Equipment"/>
+    <s v="Ferguson, Missouri"/>
+    <d v="1965-03-31T00:00:00"/>
+    <n v="32604"/>
+  </r>
+  <r>
+    <s v="ETR"/>
+    <s v="Entergy Corp."/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Electric Utilities"/>
+    <s v="New Orleans, Louisiana"/>
+    <m/>
+    <n v="65984"/>
+  </r>
+  <r>
+    <s v="EVHC"/>
+    <s v="Envision Healthcare"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Services"/>
+    <s v="Nashville, Tennessee"/>
+    <d v="2016-12-02T00:00:00"/>
+    <n v="895930"/>
+  </r>
+  <r>
+    <s v="EOG"/>
+    <s v="EOG Resources"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Exploration &amp; Production"/>
+    <s v="Houston, Texas"/>
+    <d v="2000-11-02T00:00:00"/>
+    <n v="821189"/>
+  </r>
+  <r>
+    <s v="EQT"/>
+    <s v="EQT Corporation"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Exploration &amp; Production"/>
+    <s v="Pittsburgh, Pennsylvania"/>
+    <d v="2008-12-19T00:00:00"/>
+    <n v="33213"/>
+  </r>
+  <r>
+    <s v="EFX"/>
+    <s v="Equifax Inc."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Research &amp; Consulting Services"/>
+    <s v="Atlanta, Georgia"/>
+    <d v="1997-06-19T00:00:00"/>
+    <n v="33185"/>
+  </r>
+  <r>
+    <s v="EQIX"/>
+    <s v="Equinix"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Specialized REITs"/>
+    <s v="Redwood City, California"/>
+    <d v="2015-03-20T00:00:00"/>
+    <n v="1101239"/>
+  </r>
+  <r>
+    <s v="EQR"/>
+    <s v="Equity Residential"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Residential REITs"/>
+    <s v="Chicago, Illinois"/>
+    <d v="2001-12-03T00:00:00"/>
+    <n v="906107"/>
+  </r>
+  <r>
+    <s v="ESS"/>
+    <s v="Essex Property Trust, Inc."/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Residential REITs"/>
+    <s v="Palo Alto, California"/>
+    <d v="2014-04-02T00:00:00"/>
+    <n v="920522"/>
+  </r>
+  <r>
+    <s v="EL"/>
+    <s v="Estee Lauder Cos."/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Personal Products"/>
+    <s v="New York, New York"/>
+    <d v="2006-01-05T00:00:00"/>
+    <n v="1001250"/>
+  </r>
+  <r>
+    <s v="ES"/>
+    <s v="Eversource Energy"/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Multi-Utilities"/>
+    <s v="Springfield, Massachusetts"/>
+    <m/>
+    <n v="72741"/>
+  </r>
+  <r>
+    <s v="RE"/>
+    <s v="Everest Re Group Ltd"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Reinsurance"/>
+    <s v="Hamilton, Bermuda"/>
+    <d v="2017-06-19T00:00:00"/>
+    <n v="1095073"/>
+  </r>
+  <r>
+    <s v="EXC"/>
+    <s v="Exelon Corp."/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Multi-Utilities"/>
+    <s v="Chicago, Illinois"/>
+    <m/>
+    <n v="1109357"/>
+  </r>
+  <r>
+    <s v="EXPE"/>
+    <s v="Expedia Inc."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Internet &amp; Direct Marketing Retail"/>
+    <s v="Bellevue, Washington"/>
+    <d v="2007-10-02T00:00:00"/>
+    <n v="1324424"/>
+  </r>
+  <r>
+    <s v="EXPD"/>
+    <s v="Expeditors International"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Air Freight &amp; Logistics"/>
+    <s v="Seattle, Washington"/>
+    <d v="2007-10-10T00:00:00"/>
+    <n v="746515"/>
+  </r>
+  <r>
+    <s v="ESRX"/>
+    <s v="Express Scripts"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Distributors"/>
+    <s v="Cool Valley, Missouri"/>
+    <d v="2003-09-25T00:00:00"/>
+    <n v="1532063"/>
+  </r>
+  <r>
+    <s v="EXR"/>
+    <s v="Extra Space Storage"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Specialized REITs"/>
+    <s v="Salt Lake City, Utah"/>
+    <d v="2016-01-19T00:00:00"/>
+    <n v="1289490"/>
+  </r>
+  <r>
+    <s v="XOM"/>
+    <s v="Exxon Mobil Corp."/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Integrated Oil &amp; Gas"/>
+    <s v="Irving, Texas"/>
+    <m/>
+    <n v="34088"/>
+  </r>
+  <r>
+    <s v="FFIV"/>
+    <s v="F5 Networks"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Communications Equipment"/>
+    <s v="Seattle, Washington"/>
+    <d v="2010-12-20T00:00:00"/>
+    <n v="1048695"/>
+  </r>
+  <r>
+    <s v="FB"/>
+    <s v="Facebook, Inc."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Internet Software &amp; Services"/>
+    <s v="Menlo Park, California"/>
+    <d v="2013-12-23T00:00:00"/>
+    <n v="1326801"/>
+  </r>
+  <r>
+    <s v="FAST"/>
+    <s v="Fastenal Co"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Building Products"/>
+    <s v="Winona, Minnesota"/>
+    <d v="2009-09-15T00:00:00"/>
+    <n v="815556"/>
+  </r>
+  <r>
+    <s v="FRT"/>
+    <s v="Federal Realty Investment Trust"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Retail REITs"/>
+    <s v="Rockville, Maryland"/>
+    <d v="2016-02-01T00:00:00"/>
+    <n v="34903"/>
+  </r>
+  <r>
+    <s v="FDX"/>
+    <s v="FedEx Corporation"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Air Freight &amp; Logistics"/>
+    <s v="Memphis, Tennessee"/>
+    <d v="1980-12-31T00:00:00"/>
+    <n v="1048911"/>
+  </r>
+  <r>
+    <s v="FIS"/>
+    <s v="Fidelity National Information Services"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Internet Software &amp; Services"/>
+    <s v="Jacksonville, Florida"/>
+    <d v="2006-11-10T00:00:00"/>
+    <n v="1136893"/>
+  </r>
+  <r>
+    <s v="FITB"/>
+    <s v="Fifth Third Bancorp"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Regional Banks"/>
+    <s v="Cincinnati, Ohio"/>
+    <m/>
+    <n v="35527"/>
+  </r>
+  <r>
+    <s v="FE"/>
+    <s v="FirstEnergy Corp"/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Electric Utilities"/>
+    <s v="Akron, Ohio"/>
+    <m/>
+    <n v="1031296"/>
+  </r>
+  <r>
+    <s v="FISV"/>
+    <s v="Fiserv Inc"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Internet Software &amp; Services"/>
+    <s v="Brookfield, Wisconsin"/>
+    <d v="2001-04-02T00:00:00"/>
+    <n v="798354"/>
+  </r>
+  <r>
+    <s v="FLIR"/>
+    <s v="FLIR Systems"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Electronic Equipment &amp; Instruments"/>
+    <s v="Wilsonville, Oregon"/>
+    <d v="2009-01-02T00:00:00"/>
+    <n v="354908"/>
+  </r>
+  <r>
+    <s v="FLS"/>
+    <s v="Flowserve Corporation"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Industrial Machinery"/>
+    <s v="Irving, Texas"/>
+    <d v="2008-10-02T00:00:00"/>
+    <n v="30625"/>
+  </r>
+  <r>
+    <s v="FLR"/>
+    <s v="Fluor Corp."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Construction &amp; Engineering"/>
+    <s v="Irving, Texas"/>
+    <d v="1980-03-31T00:00:00"/>
+    <n v="1124198"/>
+  </r>
+  <r>
+    <s v="FMC"/>
+    <s v="FMC Corporation"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Fertilizers &amp; Agricultural Chemicals"/>
+    <s v="Philadelphia, Pennsylvania"/>
+    <d v="2009-08-19T00:00:00"/>
+    <n v="37785"/>
+  </r>
+  <r>
+    <s v="FL"/>
+    <s v="Foot Locker Inc"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Apparel Retail"/>
+    <s v="New York, New York"/>
+    <d v="2016-04-04T00:00:00"/>
+    <n v="850209"/>
+  </r>
+  <r>
+    <s v="F"/>
+    <s v="Ford Motor"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Automobile Manufacturers"/>
+    <s v="Dearborn, Michigan"/>
+    <m/>
+    <n v="37996"/>
+  </r>
+  <r>
+    <s v="FTV"/>
+    <s v="Fortive Corp"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Industrial Machinery"/>
+    <s v="Everett, Washington"/>
+    <d v="2016-07-01T00:00:00"/>
+    <n v="1659166"/>
+  </r>
+  <r>
+    <s v="FBHS"/>
+    <s v="Fortune Brands Home &amp; Security"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Building Products"/>
+    <s v="Deerfield, Illinois"/>
+    <d v="2016-06-22T00:00:00"/>
+    <n v="1519751"/>
+  </r>
+  <r>
+    <s v="BEN"/>
+    <s v="Franklin Resources"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Asset Management &amp; Custody Banks"/>
+    <s v="San Mateo, California"/>
+    <m/>
+    <n v="38777"/>
+  </r>
+  <r>
+    <s v="FCX"/>
+    <s v="Freeport-McMoRan Inc."/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Copper"/>
+    <s v="Phoenix, Arizona"/>
+    <m/>
+    <n v="831259"/>
+  </r>
+  <r>
+    <s v="GPS"/>
+    <s v="Gap Inc."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Apparel Retail"/>
+    <s v="San Francisco, California"/>
+    <d v="1986-08-31T00:00:00"/>
+    <n v="39911"/>
+  </r>
+  <r>
+    <s v="GRMN"/>
+    <s v="Garmin Ltd."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Consumer Electronics"/>
+    <s v="Schaffhausen, Switzerland"/>
+    <d v="2012-12-12T00:00:00"/>
+    <n v="1121788"/>
+  </r>
+  <r>
+    <s v="IT"/>
+    <s v="Gartner Inc"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="IT Consulting &amp; Other Services"/>
+    <s v="Stamford, Connecticut"/>
+    <d v="2017-04-05T00:00:00"/>
+    <n v="749251"/>
+  </r>
+  <r>
+    <s v="GD"/>
+    <s v="General Dynamics"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Aerospace &amp; Defense"/>
+    <s v="Falls Church, Virginia"/>
+    <m/>
+    <n v="40533"/>
+  </r>
+  <r>
+    <s v="GE"/>
+    <s v="General Electric"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Industrial Conglomerates"/>
+    <s v="Fairfield, Connecticut"/>
+    <m/>
+    <n v="40545"/>
+  </r>
+  <r>
+    <s v="GGP"/>
+    <s v="General Growth Properties Inc."/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Retail REITs"/>
+    <s v="Chicago, Illinois"/>
+    <d v="2013-12-10T00:00:00"/>
+    <n v="895648"/>
+  </r>
+  <r>
+    <s v="GIS"/>
+    <s v="General Mills"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Packaged Foods &amp; Meats"/>
+    <s v="Golden Valley, Minnesota"/>
+    <d v="1969-03-31T00:00:00"/>
+    <n v="40704"/>
+  </r>
+  <r>
+    <s v="GM"/>
+    <s v="General Motors"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Automobile Manufacturers"/>
+    <s v="Detroit, Michigan"/>
+    <d v="2013-06-06T00:00:00"/>
+    <n v="1467858"/>
+  </r>
+  <r>
+    <s v="GPC"/>
+    <s v="Genuine Parts"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Specialty Stores"/>
+    <s v="Atlanta, Georgia"/>
+    <d v="1973-12-31T00:00:00"/>
+    <n v="40987"/>
+  </r>
+  <r>
+    <s v="GILD"/>
+    <s v="Gilead Sciences"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Biotechnology"/>
+    <s v="Foster City, California"/>
+    <d v="2004-07-01T00:00:00"/>
+    <n v="882095"/>
+  </r>
+  <r>
+    <s v="GPN"/>
+    <s v="Global Payments Inc"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Data Processing &amp; Outsourced Services"/>
+    <s v="Atlanta, Georgia"/>
+    <d v="2016-04-25T00:00:00"/>
+    <n v="1123360"/>
+  </r>
+  <r>
+    <s v="GS"/>
+    <s v="Goldman Sachs Group"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Investment Banking &amp; Brokerage"/>
+    <s v="New York, New York"/>
+    <d v="2002-07-22T00:00:00"/>
+    <n v="886982"/>
+  </r>
+  <r>
+    <s v="GT"/>
+    <s v="Goodyear Tire &amp; Rubber"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Tires &amp; Rubber"/>
+    <s v="Akron, Ohio"/>
+    <m/>
+    <n v="42582"/>
+  </r>
+  <r>
+    <s v="GWW"/>
+    <s v="Grainger (W.W.) Inc."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Industrial Machinery"/>
+    <s v="Lake Forest, Illinois"/>
+    <d v="1981-06-30T00:00:00"/>
+    <n v="277135"/>
+  </r>
+  <r>
+    <s v="HAL"/>
+    <s v="Halliburton Co."/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Equipment &amp; Services"/>
+    <s v="Houston, Texas"/>
+    <m/>
+    <n v="45012"/>
+  </r>
+  <r>
+    <s v="HBI"/>
+    <s v="Hanesbrands Inc"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Apparel, Accessories &amp; Luxury Goods"/>
+    <s v="Winston-Salem, North Carolina"/>
+    <d v="2015-03-20T00:00:00"/>
+    <n v="1359841"/>
+  </r>
+  <r>
+    <s v="HOG"/>
+    <s v="Harley-Davidson"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Motorcycle Manufacturers"/>
+    <s v="Milwaukee, Wisconsin"/>
+    <m/>
+    <n v="793952"/>
+  </r>
+  <r>
+    <s v="HRS"/>
+    <s v="Harris Corporation"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Communications Equipment"/>
+    <s v="Melbourne, Florida"/>
+    <d v="2008-09-22T00:00:00"/>
+    <n v="202058"/>
+  </r>
+  <r>
+    <s v="HIG"/>
+    <s v="Hartford Financial Svc.Gp."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Property &amp; Casualty Insurance"/>
+    <s v="Hartford, Connecticut"/>
+    <m/>
+    <n v="874766"/>
+  </r>
+  <r>
+    <s v="HAS"/>
+    <s v="Hasbro Inc."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Leisure Products"/>
+    <s v="Pawtucket, Rhode Island"/>
+    <d v="1984-09-30T00:00:00"/>
+    <n v="46080"/>
+  </r>
+  <r>
+    <s v="HCA"/>
+    <s v="HCA Holdings"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Facilities"/>
+    <s v="Nashville, Tennessee"/>
+    <d v="2015-01-27T00:00:00"/>
+    <n v="860730"/>
+  </r>
+  <r>
+    <s v="HCP"/>
+    <s v="HCP Inc."/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Health Care REITs"/>
+    <s v="Long Beach, California"/>
+    <d v="2008-03-31T00:00:00"/>
+    <n v="765880"/>
+  </r>
+  <r>
+    <s v="HP"/>
+    <s v="Helmerich &amp; Payne"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Drilling"/>
+    <s v="Tulsa, Oklahoma[5]"/>
+    <d v="2010-03-01T00:00:00"/>
+    <n v="46765"/>
+  </r>
+  <r>
+    <s v="HSIC"/>
+    <s v="Henry Schein"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Distributors"/>
+    <s v="Melville, New York"/>
+    <d v="2015-03-17T00:00:00"/>
+    <n v="1000228"/>
+  </r>
+  <r>
+    <s v="HSY"/>
+    <s v="The Hershey Company"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Packaged Foods &amp; Meats"/>
+    <s v="Hershey, Pennsylvania"/>
+    <m/>
+    <n v="47111"/>
+  </r>
+  <r>
+    <s v="HES"/>
+    <s v="Hess Corporation"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Integrated Oil &amp; Gas"/>
+    <s v="New York, New York"/>
+    <d v="1984-05-31T00:00:00"/>
+    <n v="4447"/>
+  </r>
+  <r>
+    <s v="HPE"/>
+    <s v="Hewlett Packard Enterprise"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Technology Hardware, Storage &amp; Peripherals"/>
+    <s v="Palo Alto, California"/>
+    <d v="2015-11-02T00:00:00"/>
+    <n v="1645590"/>
+  </r>
+  <r>
+    <s v="HLT"/>
+    <s v="Hilton Worldwide Holdings Inc"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Hotels, Resorts &amp; Cruise Lines"/>
+    <s v="Tysons Corner, Virginia"/>
+    <d v="2017-06-19T00:00:00"/>
+    <n v="1585689"/>
+  </r>
+  <r>
+    <s v="HOLX"/>
+    <s v="Hologic"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Equipment"/>
+    <s v="Marlborough, Massachusetts"/>
+    <d v="2016-03-30T00:00:00"/>
+    <n v="859737"/>
+  </r>
+  <r>
+    <s v="HD"/>
+    <s v="Home Depot"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Home Improvement Retail"/>
+    <s v="Atlanta, Georgia"/>
+    <d v="1988-03-31T00:00:00"/>
+    <n v="354950"/>
+  </r>
+  <r>
+    <s v="HON"/>
+    <s v="Honeywell Int'l Inc."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Industrial Conglomerates"/>
+    <s v="Morristown, New Jersey"/>
+    <d v="1964-03-31T00:00:00"/>
+    <n v="773840"/>
+  </r>
+  <r>
+    <s v="HRL"/>
+    <s v="Hormel Foods Corp."/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Packaged Foods &amp; Meats"/>
+    <s v="Austin, Minnesota"/>
+    <d v="2009-03-04T00:00:00"/>
+    <n v="48465"/>
+  </r>
+  <r>
+    <s v="HST"/>
+    <s v="Host Hotels &amp; Resorts"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Hotel &amp; Resort REITs"/>
+    <s v="Bethesda, Maryland"/>
+    <d v="2007-03-20T00:00:00"/>
+    <n v="1070750"/>
+  </r>
+  <r>
+    <s v="HPQ"/>
+    <s v="HP Inc."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Technology Hardware, Storage &amp; Peripherals"/>
+    <s v="Palo Alto, California"/>
+    <d v="1974-12-31T00:00:00"/>
+    <n v="47217"/>
+  </r>
+  <r>
+    <s v="HUM"/>
+    <s v="Humana Inc."/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Managed Health Care"/>
+    <s v="Louisville, Kentucky"/>
+    <m/>
+    <n v="49071"/>
+  </r>
+  <r>
+    <s v="HBAN"/>
+    <s v="Huntington Bancshares"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Regional Banks"/>
+    <s v="Columbus, Ohio"/>
+    <m/>
+    <n v="49196"/>
+  </r>
+  <r>
+    <s v="IDXX"/>
+    <s v="IDEXX Laboratories"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Equipment"/>
+    <s v="Westbrook, Maine"/>
+    <d v="2017-01-05T00:00:00"/>
+    <n v="874716"/>
+  </r>
+  <r>
+    <s v="INFO"/>
+    <s v="IHS Markit Ltd."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Research &amp; Consulting Services"/>
+    <s v="London, United Kingdom"/>
+    <d v="2017-06-02T00:00:00"/>
+    <n v="1598014"/>
+  </r>
+  <r>
+    <s v="ITW"/>
+    <s v="Illinois Tool Works"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Industrial Machinery"/>
+    <s v="Glenview, Illinois"/>
+    <d v="1986-02-28T00:00:00"/>
+    <n v="49826"/>
+  </r>
+  <r>
+    <s v="ILMN"/>
+    <s v="Illumina Inc"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Life Sciences Tools &amp; Services"/>
+    <s v="San Diego, California"/>
+    <d v="2015-11-19T00:00:00"/>
+    <n v="1110803"/>
+  </r>
+  <r>
+    <s v="IR"/>
+    <s v="Ingersoll-Rand PLC"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Industrial Machinery"/>
+    <s v="Dublin, Ireland"/>
+    <d v="2010-11-17T00:00:00"/>
+    <n v="1466258"/>
+  </r>
+  <r>
+    <s v="INTC"/>
+    <s v="Intel Corp."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Semiconductors"/>
+    <s v="Santa Clara, California"/>
+    <d v="1976-12-31T00:00:00"/>
+    <n v="50863"/>
+  </r>
+  <r>
+    <s v="ICE"/>
+    <s v="Intercontinental Exchange"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Financial Exchanges &amp; Data"/>
+    <s v="Atlanta, Georgia"/>
+    <d v="2007-09-26T00:00:00"/>
+    <n v="1571949"/>
+  </r>
+  <r>
+    <s v="IBM"/>
+    <s v="International Business Machines"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="IT Consulting &amp; Other Services"/>
+    <s v="Armonk, New York"/>
+    <m/>
+    <n v="51143"/>
+  </r>
+  <r>
+    <s v="INCY"/>
+    <s v="Incyte"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Biotechnology"/>
+    <s v="Wilmington, Delaware"/>
+    <d v="2017-02-28T00:00:00"/>
+    <n v="879169"/>
+  </r>
+  <r>
+    <s v="IP"/>
+    <s v="International Paper"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Paper Packaging"/>
+    <s v="Memphis, Tennessee"/>
+    <m/>
+    <n v="51434"/>
+  </r>
+  <r>
+    <s v="IPG"/>
+    <s v="Interpublic Group"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Advertising"/>
+    <s v="New York, New York"/>
+    <d v="1992-10-01T00:00:00"/>
+    <n v="51644"/>
+  </r>
+  <r>
+    <s v="IFF"/>
+    <s v="Intl Flavors &amp; Fragrances"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Specialty Chemicals"/>
+    <s v="New York, New York"/>
+    <d v="1976-03-31T00:00:00"/>
+    <n v="51253"/>
+  </r>
+  <r>
+    <s v="INTU"/>
+    <s v="Intuit Inc."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Internet Software &amp; Services"/>
+    <s v="Mountain View, California"/>
+    <d v="2000-12-05T00:00:00"/>
+    <n v="896878"/>
+  </r>
+  <r>
+    <s v="ISRG"/>
+    <s v="Intuitive Surgical Inc."/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Equipment"/>
+    <s v="Sunnyvale, California"/>
+    <d v="2008-06-02T00:00:00"/>
+    <n v="1035267"/>
+  </r>
+  <r>
+    <s v="IVZ"/>
+    <s v="Invesco Ltd."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Asset Management &amp; Custody Banks"/>
+    <s v="Atlanta, Georgia"/>
+    <d v="2008-08-21T00:00:00"/>
+    <n v="914208"/>
+  </r>
+  <r>
+    <s v="IRM"/>
+    <s v="Iron Mountain Incorporated"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Specialized REITs"/>
+    <s v="Boston, Massachusetts"/>
+    <d v="2009-01-06T00:00:00"/>
+    <n v="1020569"/>
+  </r>
+  <r>
+    <s v="JEC"/>
+    <s v="Jacobs Engineering Group"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Construction &amp; Engineering"/>
+    <s v="Pasadena, California"/>
+    <d v="2007-10-26T00:00:00"/>
+    <n v="52988"/>
+  </r>
+  <r>
+    <s v="JBHT"/>
+    <s v="J. B. Hunt Transport Services"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Trucking"/>
+    <s v="Lowell, Arkansas"/>
+    <d v="2015-07-01T00:00:00"/>
+    <n v="728535"/>
+  </r>
+  <r>
+    <s v="SJM"/>
+    <s v="JM Smucker"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Packaged Foods &amp; Meats"/>
+    <s v="Orrville, Ohio"/>
+    <d v="2008-11-06T00:00:00"/>
+    <n v="91419"/>
+  </r>
+  <r>
+    <s v="JNJ"/>
+    <s v="Johnson &amp; Johnson"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Equipment"/>
+    <s v="New Brunswick, New Jersey"/>
+    <d v="1973-06-30T00:00:00"/>
+    <n v="200406"/>
+  </r>
+  <r>
+    <s v="JCI"/>
+    <s v="Johnson Controls International"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Building Products"/>
+    <s v="Cork, Ireland"/>
+    <d v="2010-08-27T00:00:00"/>
+    <n v="833444"/>
+  </r>
+  <r>
+    <s v="JPM"/>
+    <s v="JPMorgan Chase &amp; Co."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Diversified Banks"/>
+    <s v="New York, New York"/>
+    <d v="1975-06-30T00:00:00"/>
+    <n v="19617"/>
+  </r>
+  <r>
+    <s v="JNPR"/>
+    <s v="Juniper Networks"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Communications Equipment"/>
+    <s v="Sunnyvale, California"/>
+    <m/>
+    <n v="1043604"/>
+  </r>
+  <r>
+    <s v="KSU"/>
+    <s v="Kansas City Southern"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Railroads"/>
+    <s v="Kansas City, Missouri"/>
+    <d v="2013-05-24T00:00:00"/>
+    <n v="54480"/>
+  </r>
+  <r>
+    <s v="K"/>
+    <s v="Kellogg Co."/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Packaged Foods &amp; Meats"/>
+    <s v="Battle Creek, Michigan"/>
+    <m/>
+    <n v="55067"/>
+  </r>
+  <r>
+    <s v="KEY"/>
+    <s v="KeyCorp"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Regional Banks"/>
+    <s v="Cleveland, Ohio"/>
+    <d v="1994-03-01T00:00:00"/>
+    <n v="91576"/>
+  </r>
+  <r>
+    <s v="KMB"/>
+    <s v="Kimberly-Clark"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Household Products"/>
+    <s v="Irving, Texas"/>
+    <m/>
+    <n v="55785"/>
+  </r>
+  <r>
+    <s v="KIM"/>
+    <s v="Kimco Realty"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Retail REITs"/>
+    <s v="New Hyde Park, New York"/>
+    <d v="2006-04-04T00:00:00"/>
+    <n v="879101"/>
+  </r>
+  <r>
+    <s v="KMI"/>
+    <s v="Kinder Morgan"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Storage &amp; Transportation"/>
+    <s v="Houston, Texas"/>
+    <d v="2012-05-25T00:00:00"/>
+    <n v="1506307"/>
+  </r>
+  <r>
+    <s v="KLAC"/>
+    <s v="KLA-Tencor Corp."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Semiconductor Equipment"/>
+    <s v="Milpitas, California"/>
+    <m/>
+    <n v="319201"/>
+  </r>
+  <r>
+    <s v="KSS"/>
+    <s v="Kohl's Corp."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="General Merchandise Stores"/>
+    <s v="Menomonee Falls, Wisconsin"/>
+    <m/>
+    <n v="885639"/>
+  </r>
+  <r>
+    <s v="KHC"/>
+    <s v="Kraft Heinz Co"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Packaged Foods &amp; Meats"/>
+    <s v="Pittsburgh, Pennsylvania"/>
+    <d v="2015-07-06T00:00:00"/>
+    <n v="1637459"/>
+  </r>
+  <r>
+    <s v="KR"/>
+    <s v="Kroger Co."/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Food Retail"/>
+    <s v="Cincinnati, Ohio"/>
+    <m/>
+    <n v="56873"/>
+  </r>
+  <r>
+    <s v="LB"/>
+    <s v="L Brands Inc."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Apparel Retail"/>
+    <s v="Columbus, Ohio"/>
+    <d v="1983-09-30T00:00:00"/>
+    <n v="701985"/>
+  </r>
+  <r>
+    <s v="LLL"/>
+    <s v="L-3 Communications Holdings"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Aerospace &amp; Defense"/>
+    <s v="New York, New York"/>
+    <m/>
+    <n v="1056239"/>
+  </r>
+  <r>
+    <s v="LH"/>
+    <s v="Laboratory Corp. of America Holding"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Services"/>
+    <s v="Burlington, North Carolina"/>
+    <d v="2004-11-01T00:00:00"/>
+    <n v="920148"/>
+  </r>
+  <r>
+    <s v="LRCX"/>
+    <s v="Lam Research"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Semiconductor Equipment"/>
+    <s v="Fremont, California"/>
+    <d v="2012-06-29T00:00:00"/>
+    <n v="707549"/>
+  </r>
+  <r>
+    <s v="LEG"/>
+    <s v="Leggett &amp; Platt"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Home Furnishings"/>
+    <s v="Carthage, Missouri"/>
+    <m/>
+    <n v="58492"/>
+  </r>
+  <r>
+    <s v="LEN"/>
+    <s v="Lennar Corp."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Homebuilding"/>
+    <s v="Miami, Florida"/>
+    <d v="2005-10-04T00:00:00"/>
+    <n v="920760"/>
+  </r>
+  <r>
+    <s v="LVLT"/>
+    <s v="Level 3 Communications"/>
+    <s v="reports"/>
+    <x v="10"/>
+    <s v="Alternative Carriers"/>
+    <s v="Broomfield, Colorado"/>
+    <d v="2014-11-05T00:00:00"/>
+    <n v="794323"/>
+  </r>
+  <r>
+    <s v="LUK"/>
+    <s v="Leucadia National Corp."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Multi-Sector Holdings"/>
+    <s v="New York, New York"/>
+    <d v="2007-08-27T00:00:00"/>
+    <n v="96223"/>
+  </r>
+  <r>
+    <s v="LLY"/>
+    <s v="Lilly (Eli) &amp; Co."/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Pharmaceuticals"/>
+    <s v="Indianapolis, Indiana"/>
+    <d v="1970-12-31T00:00:00"/>
+    <n v="59478"/>
+  </r>
+  <r>
+    <s v="LNC"/>
+    <s v="Lincoln National"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Multi-line Insurance"/>
+    <s v="Radnor, Pennsylvania"/>
+    <d v="1976-06-30T00:00:00"/>
+    <n v="59558"/>
+  </r>
+  <r>
+    <s v="LKQ"/>
+    <s v="LKQ Corporation"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Distributors"/>
+    <s v="Chicago, Illinois"/>
+    <d v="2016-05-23T00:00:00"/>
+    <n v="1065696"/>
+  </r>
+  <r>
+    <s v="LMT"/>
+    <s v="Lockheed Martin Corp."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Aerospace &amp; Defense"/>
+    <s v="Bethesda, Maryland"/>
+    <d v="1984-07-31T00:00:00"/>
+    <n v="936468"/>
+  </r>
+  <r>
+    <s v="L"/>
+    <s v="Loews Corp."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Multi-line Insurance"/>
+    <s v="New York, New York"/>
+    <m/>
+    <n v="60086"/>
+  </r>
+  <r>
+    <s v="LOW"/>
+    <s v="Lowe's Cos."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Home Improvement Retail"/>
+    <s v="Mooresville, North Carolina"/>
+    <d v="1984-02-29T00:00:00"/>
+    <n v="60667"/>
+  </r>
+  <r>
+    <s v="LYB"/>
+    <s v="LyondellBasell"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Specialty Chemicals"/>
+    <s v="Rotterdam, Netherlands"/>
+    <d v="2012-09-05T00:00:00"/>
+    <n v="1489393"/>
+  </r>
+  <r>
+    <s v="MTB"/>
+    <s v="M&amp;T Bank Corp."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Regional Banks"/>
+    <s v="Buffalo, New York"/>
+    <m/>
+    <n v="36270"/>
+  </r>
+  <r>
+    <s v="MAC"/>
+    <s v="Macerich"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Retail REITs"/>
+    <s v="Santa Monica, California"/>
+    <d v="2013-05-09T00:00:00"/>
+    <n v="912242"/>
+  </r>
+  <r>
+    <s v="M"/>
+    <s v="Macy's Inc."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Department Stores"/>
+    <s v="Cincinnati, Ohio"/>
+    <m/>
+    <n v="794367"/>
+  </r>
+  <r>
+    <s v="MRO"/>
+    <s v="Marathon Oil Corp."/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Exploration &amp; Production"/>
+    <s v="Houston, Texas"/>
+    <d v="1991-05-01T00:00:00"/>
+    <n v="101778"/>
+  </r>
+  <r>
+    <s v="MPC"/>
+    <s v="Marathon Petroleum"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Refining &amp; Marketing"/>
+    <s v="Findlay, Ohio"/>
+    <d v="2011-07-01T00:00:00"/>
+    <n v="1510295"/>
+  </r>
+  <r>
+    <s v="MAR"/>
+    <s v="Marriott Int'l."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Hotels, Resorts &amp; Cruise Lines"/>
+    <s v="Bethesda, Maryland"/>
+    <m/>
+    <n v="1048286"/>
+  </r>
+  <r>
+    <s v="MMC"/>
+    <s v="Marsh &amp; McLennan"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Insurance Brokers"/>
+    <s v="New York, New York"/>
+    <d v="1987-08-31T00:00:00"/>
+    <n v="62709"/>
+  </r>
+  <r>
+    <s v="MLM"/>
+    <s v="Martin Marietta Materials"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Construction Materials"/>
+    <s v="Raleigh, North Carolina"/>
+    <d v="2014-07-02T00:00:00"/>
+    <n v="916076"/>
+  </r>
+  <r>
+    <s v="MAS"/>
+    <s v="Masco Corp."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Building Products"/>
+    <s v="Taylor, Michigan"/>
+    <d v="1981-06-30T00:00:00"/>
+    <n v="62996"/>
+  </r>
+  <r>
+    <s v="MA"/>
+    <s v="Mastercard Inc."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Internet Software &amp; Services"/>
+    <s v="Harrison, New York"/>
+    <d v="2008-07-18T00:00:00"/>
+    <n v="1141391"/>
+  </r>
+  <r>
+    <s v="MAT"/>
+    <s v="Mattel Inc."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Leisure Products"/>
+    <s v="El Segundo, California"/>
+    <d v="1982-03-31T00:00:00"/>
+    <n v="63276"/>
+  </r>
+  <r>
+    <s v="MKC"/>
+    <s v="McCormick &amp; Co."/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Packaged Foods &amp; Meats"/>
+    <s v="Sparks, Maryland"/>
+    <m/>
+    <n v="63754"/>
+  </r>
+  <r>
+    <s v="MCD"/>
+    <s v="McDonald's Corp."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Restaurants"/>
+    <s v="Oak Brook, Illinois"/>
+    <d v="1970-06-30T00:00:00"/>
+    <n v="63908"/>
+  </r>
+  <r>
+    <s v="MCK"/>
+    <s v="McKesson Corp."/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Distributors"/>
+    <s v="San Francisco, California"/>
+    <m/>
+    <n v="927653"/>
+  </r>
+  <r>
+    <s v="MDT"/>
+    <s v="Medtronic plc"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Equipment"/>
+    <s v="Dublin, Ireland"/>
+    <d v="1986-10-31T00:00:00"/>
+    <n v="64670"/>
+  </r>
+  <r>
+    <s v="MRK"/>
+    <s v="Merck &amp; Co."/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Pharmaceuticals"/>
+    <s v="Whitehouse Station, New Jersey"/>
+    <m/>
+    <n v="310158"/>
+  </r>
+  <r>
+    <s v="MET"/>
+    <s v="MetLife Inc."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Life &amp; Health Insurance"/>
+    <s v="New York, New York"/>
+    <m/>
+    <n v="1099219"/>
+  </r>
+  <r>
+    <s v="MTD"/>
+    <s v="Mettler Toledo"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Life Sciences Tools &amp; Services"/>
+    <s v="Columbus, Ohio"/>
+    <d v="2016-09-06T00:00:00"/>
+    <n v="1037646"/>
+  </r>
+  <r>
+    <s v="MGM"/>
+    <s v="MGM Resorts International"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Casinos &amp; Gaming"/>
+    <s v="Paradise, Nevada"/>
+    <d v="2017-07-26T00:00:00"/>
+    <n v="789570"/>
+  </r>
+  <r>
+    <s v="KORS"/>
+    <s v="Michael Kors Holdings"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Apparel, Accessories &amp; Luxury Goods"/>
+    <s v="New York, New York"/>
+    <d v="2013-11-13T00:00:00"/>
+    <n v="1530721"/>
+  </r>
+  <r>
+    <s v="MCHP"/>
+    <s v="Microchip Technology"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Semiconductors"/>
+    <s v="Chandler, Arizona"/>
+    <d v="2007-09-07T00:00:00"/>
+    <n v="827054"/>
+  </r>
+  <r>
+    <s v="MU"/>
+    <s v="Micron Technology"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Semiconductors"/>
+    <s v="Boise, Idaho"/>
+    <d v="1994-09-27T00:00:00"/>
+    <n v="723125"/>
+  </r>
+  <r>
+    <s v="MSFT"/>
+    <s v="Microsoft Corp."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Systems Software"/>
+    <s v="Redmond, Washington"/>
+    <d v="1994-06-01T00:00:00"/>
+    <n v="789019"/>
+  </r>
+  <r>
+    <s v="MAA"/>
+    <s v="Mid-America Apartments"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Residential REITs"/>
+    <s v="Memphis, Tennessee"/>
+    <d v="2016-12-02T00:00:00"/>
+    <n v="912595"/>
+  </r>
+  <r>
+    <s v="MHK"/>
+    <s v="Mohawk Industries"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Home Furnishings"/>
+    <s v="Amsterdam, New York"/>
+    <d v="2013-12-23T00:00:00"/>
+    <n v="851968"/>
+  </r>
+  <r>
+    <s v="TAP"/>
+    <s v="Molson Coors Brewing Company"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Brewers"/>
+    <s v="Denver, Colorado"/>
+    <d v="1976-06-30T00:00:00"/>
+    <n v="24545"/>
+  </r>
+  <r>
+    <s v="MDLZ"/>
+    <s v="Mondelez International"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Packaged Foods &amp; Meats"/>
+    <s v="Northfield, Illinois"/>
+    <d v="2012-10-02T00:00:00"/>
+    <n v="1103982"/>
+  </r>
+  <r>
+    <s v="MON"/>
+    <s v="Monsanto Co."/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Fertilizers &amp; Agricultural Chemicals"/>
+    <s v="Creve Coeur, Missouri"/>
+    <d v="2002-08-07T00:00:00"/>
+    <n v="1110783"/>
+  </r>
+  <r>
+    <s v="MNST"/>
+    <s v="Monster Beverage"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Soft Drinks"/>
+    <s v="Corona, California"/>
+    <d v="2012-06-28T00:00:00"/>
+    <n v="865752"/>
+  </r>
+  <r>
+    <s v="MCO"/>
+    <s v="Moody's Corp"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Financial Exchanges &amp; Data"/>
+    <s v="New York, New York"/>
+    <m/>
+    <n v="1059556"/>
+  </r>
+  <r>
+    <s v="MS"/>
+    <s v="Morgan Stanley"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Investment Banking &amp; Brokerage"/>
+    <s v="New York, New York"/>
+    <m/>
+    <n v="895421"/>
+  </r>
+  <r>
+    <s v="MOS"/>
+    <s v="The Mosaic Company"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Fertilizers &amp; Agricultural Chemicals"/>
+    <s v="Plymouth, Minnesota"/>
+    <d v="2011-09-26T00:00:00"/>
+    <n v="1285785"/>
+  </r>
+  <r>
+    <s v="MSI"/>
+    <s v="Motorola Solutions Inc."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Communications Equipment"/>
+    <s v="Schaumburg, Illinois"/>
+    <m/>
+    <n v="68505"/>
+  </r>
+  <r>
+    <s v="MYL"/>
+    <s v="Mylan N.V."/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Pharmaceuticals"/>
+    <s v="Amsterdam, Netherlands"/>
+    <d v="2004-04-23T00:00:00"/>
+    <n v="69499"/>
+  </r>
+  <r>
+    <s v="NDAQ"/>
+    <s v="Nasdaq, Inc."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Financial Exchanges &amp; Data"/>
+    <s v="New York, New York"/>
+    <d v="2008-10-22T00:00:00"/>
+    <n v="1120193"/>
+  </r>
+  <r>
+    <s v="NOV"/>
+    <s v="National Oilwell Varco Inc."/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Equipment &amp; Services"/>
+    <s v="Houston, Texas"/>
+    <d v="2005-03-14T00:00:00"/>
+    <n v="1021860"/>
+  </r>
+  <r>
+    <s v="NAVI"/>
+    <s v="Navient"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Consumer Finance"/>
+    <s v="Wilmington, Delaware"/>
+    <d v="2014-05-01T00:00:00"/>
+    <n v="1593538"/>
+  </r>
+  <r>
+    <s v="NTAP"/>
+    <s v="NetApp"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Internet Software &amp; Services"/>
+    <s v="Sunnyvale, California"/>
+    <d v="1999-06-25T00:00:00"/>
+    <n v="1002047"/>
+  </r>
+  <r>
+    <s v="NFLX"/>
+    <s v="Netflix Inc."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Internet Software &amp; Services"/>
+    <s v="Los Gatos, California"/>
+    <d v="2010-12-20T00:00:00"/>
+    <n v="1065280"/>
+  </r>
+  <r>
+    <s v="NWL"/>
+    <s v="Newell Brands"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Housewares &amp; Specialties"/>
+    <s v="Sandy Springs, Georgia"/>
+    <d v="1989-04-30T00:00:00"/>
+    <n v="814453"/>
+  </r>
+  <r>
+    <s v="NFX"/>
+    <s v="Newfield Exploration Co"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Exploration &amp; Production"/>
+    <s v="Houston, Texas"/>
+    <d v="2010-12-20T00:00:00"/>
+    <n v="912750"/>
+  </r>
+  <r>
+    <s v="NEM"/>
+    <s v="Newmont Mining Corporation"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Gold"/>
+    <s v="Denver, Colorado"/>
+    <d v="1969-06-30T00:00:00"/>
+    <n v="1164727"/>
+  </r>
+  <r>
+    <s v="NWSA"/>
+    <s v="News Corp. Class A"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Publishing"/>
+    <s v="New York, New York"/>
+    <d v="2013-08-01T00:00:00"/>
+    <n v="1564708"/>
+  </r>
+  <r>
+    <s v="NWS"/>
+    <s v="News Corp. Class B"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Publishing"/>
+    <s v="New York, New York"/>
+    <d v="2015-09-18T00:00:00"/>
+    <n v="1564708"/>
+  </r>
+  <r>
+    <s v="NEE"/>
+    <s v="NextEra Energy"/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Multi-Utilities"/>
+    <s v="Juno Beach, Florida"/>
+    <d v="1976-06-30T00:00:00"/>
+    <n v="753308"/>
+  </r>
+  <r>
+    <s v="NLSN"/>
+    <s v="Nielsen Holdings"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Research &amp; Consulting Services"/>
+    <s v="New York, New York"/>
+    <d v="2013-07-09T00:00:00"/>
+    <n v="1492633"/>
+  </r>
+  <r>
+    <s v="NKE"/>
+    <s v="Nike"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Apparel, Accessories &amp; Luxury Goods"/>
+    <s v="Washington County, Oregon"/>
+    <d v="1988-11-30T00:00:00"/>
+    <n v="320187"/>
+  </r>
+  <r>
+    <s v="NI"/>
+    <s v="NiSource Inc."/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Multi-Utilities"/>
+    <s v="Merrillville, Indiana"/>
+    <m/>
+    <n v="1111711"/>
+  </r>
+  <r>
+    <s v="NBL"/>
+    <s v="Noble Energy Inc"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Exploration &amp; Production"/>
+    <s v="Houston, Texas"/>
+    <d v="2007-10-08T00:00:00"/>
+    <n v="72207"/>
+  </r>
+  <r>
+    <s v="JWN"/>
+    <s v="Nordstrom"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Department Stores"/>
+    <s v="Seattle, Washington"/>
+    <d v="1986-08-31T00:00:00"/>
+    <n v="72333"/>
+  </r>
+  <r>
+    <s v="NSC"/>
+    <s v="Norfolk Southern Corp."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Railroads"/>
+    <s v="Norfolk, Virginia"/>
+    <m/>
+    <n v="702165"/>
+  </r>
+  <r>
+    <s v="NTRS"/>
+    <s v="Northern Trust Corp."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Asset Management &amp; Custody Banks"/>
+    <s v="Chicago, Illinois"/>
+    <m/>
+    <n v="73124"/>
+  </r>
+  <r>
+    <s v="NOC"/>
+    <s v="Northrop Grumman Corp."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Aerospace &amp; Defense"/>
+    <s v="West Falls Church, Virginia"/>
+    <d v="1985-06-30T00:00:00"/>
+    <n v="1133421"/>
+  </r>
+  <r>
+    <s v="NRG"/>
+    <s v="NRG Energy"/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Independent Power Producers &amp; Energy Traders"/>
+    <s v="Princeton, New Jersey"/>
+    <d v="2010-01-29T00:00:00"/>
+    <n v="1013871"/>
+  </r>
+  <r>
+    <s v="NUE"/>
+    <s v="Nucor Corp."/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Steel"/>
+    <s v="Charlotte, North Carolina"/>
+    <d v="1985-04-30T00:00:00"/>
+    <n v="73309"/>
+  </r>
+  <r>
+    <s v="NVDA"/>
+    <s v="Nvidia Corporation"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Semiconductors"/>
+    <s v="Santa Clara, California"/>
+    <d v="2001-11-30T00:00:00"/>
+    <n v="1045810"/>
+  </r>
+  <r>
+    <s v="ORLY"/>
+    <s v="O'Reilly Automotive"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Specialty Stores"/>
+    <s v="Springfield, Missouri"/>
+    <d v="2009-03-27T00:00:00"/>
+    <n v="898173"/>
+  </r>
+  <r>
+    <s v="OXY"/>
+    <s v="Occidental Petroleum"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Exploration &amp; Production"/>
+    <s v="Los Angeles, California"/>
+    <d v="1982-12-31T00:00:00"/>
+    <n v="797468"/>
+  </r>
+  <r>
+    <s v="OMC"/>
+    <s v="Omnicom Group"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Advertising"/>
+    <s v="New York, New York"/>
+    <m/>
+    <n v="29989"/>
+  </r>
+  <r>
+    <s v="OKE"/>
+    <s v="ONEOK"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Storage &amp; Transportation"/>
+    <s v="Tulsa, Oklahoma"/>
+    <d v="2010-03-15T00:00:00"/>
+    <n v="1039684"/>
+  </r>
+  <r>
+    <s v="ORCL"/>
+    <s v="Oracle Corp."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Application Software"/>
+    <s v="Redwood Shores, California"/>
+    <d v="1989-08-31T00:00:00"/>
+    <n v="1341439"/>
+  </r>
+  <r>
+    <s v="PCAR"/>
+    <s v="PACCAR Inc."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Construction Machinery &amp; Heavy Trucks"/>
+    <s v="Bellevue, Washington"/>
+    <d v="1980-12-31T00:00:00"/>
+    <n v="75362"/>
+  </r>
+  <r>
+    <s v="PKG"/>
+    <s v="Packaging Corporation of America"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Paper Packaging"/>
+    <s v="Lake Forest, Illinois"/>
+    <d v="2017-07-26T00:00:00"/>
+    <n v="75677"/>
+  </r>
+  <r>
+    <s v="PH"/>
+    <s v="Parker-Hannifin"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Industrial Machinery"/>
+    <s v="Cleveland, Ohio"/>
+    <d v="1985-11-30T00:00:00"/>
+    <n v="76334"/>
+  </r>
+  <r>
+    <s v="PDCO"/>
+    <s v="Patterson Companies"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Supplies"/>
+    <s v="St. Paul, Minnesota"/>
+    <d v="2005-10-11T00:00:00"/>
+    <n v="891024"/>
+  </r>
+  <r>
+    <s v="PAYX"/>
+    <s v="Paychex Inc."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Internet Software &amp; Services"/>
+    <s v="Penfield, New York"/>
+    <m/>
+    <n v="723531"/>
+  </r>
+  <r>
+    <s v="PYPL"/>
+    <s v="PayPal"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Data Processing &amp; Outsourced Services"/>
+    <s v="San Jose, California"/>
+    <d v="2015-07-20T00:00:00"/>
+    <n v="1633917"/>
+  </r>
+  <r>
+    <s v="PNR"/>
+    <s v="Pentair Ltd."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Industrial Machinery"/>
+    <s v="Worsley, UK"/>
+    <d v="2012-10-01T00:00:00"/>
+    <n v="77360"/>
+  </r>
+  <r>
+    <s v="PBCT"/>
+    <s v="People's United Financial"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Thrifts &amp; Mortgage Finance"/>
+    <s v="Bridgeport, Connecticut"/>
+    <d v="2008-11-13T00:00:00"/>
+    <n v="1378946"/>
+  </r>
+  <r>
+    <s v="PEP"/>
+    <s v="PepsiCo Inc."/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Soft Drinks"/>
+    <s v="Purchase, New York"/>
+    <m/>
+    <n v="77476"/>
+  </r>
+  <r>
+    <s v="PKI"/>
+    <s v="PerkinElmer"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Equipment"/>
+    <s v="Waltham, Massachusetts"/>
+    <d v="1985-05-31T00:00:00"/>
+    <n v="31791"/>
+  </r>
+  <r>
+    <s v="PRGO"/>
+    <s v="Perrigo"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Pharmaceuticals"/>
+    <s v="Dublin, Ireland"/>
+    <d v="2011-12-19T00:00:00"/>
+    <n v="1585364"/>
+  </r>
+  <r>
+    <s v="PFE"/>
+    <s v="Pfizer Inc."/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Pharmaceuticals"/>
+    <s v="New York, New York"/>
+    <m/>
+    <n v="78003"/>
+  </r>
+  <r>
+    <s v="PCG"/>
+    <s v="PG&amp;E Corp."/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Multi-Utilities"/>
+    <s v="San Francisco, California"/>
+    <m/>
+    <n v="1004980"/>
+  </r>
+  <r>
+    <s v="PM"/>
+    <s v="Philip Morris International"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Tobacco"/>
+    <s v="New York, New York"/>
+    <d v="2008-03-31T00:00:00"/>
+    <n v="1413329"/>
+  </r>
+  <r>
+    <s v="PSX"/>
+    <s v="Phillips 66"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Refining &amp; Marketing"/>
+    <s v="Houston, Texas"/>
+    <d v="2012-05-01T00:00:00"/>
+    <n v="1534701"/>
+  </r>
+  <r>
+    <s v="PNW"/>
+    <s v="Pinnacle West Capital"/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Multi-Utilities"/>
+    <s v="Phoenix, Arizona"/>
+    <m/>
+    <n v="764622"/>
+  </r>
+  <r>
+    <s v="PXD"/>
+    <s v="Pioneer Natural Resources"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Exploration &amp; Production"/>
+    <s v="Irving, Texas"/>
+    <d v="2008-09-24T00:00:00"/>
+    <n v="1038357"/>
+  </r>
+  <r>
+    <s v="PNC"/>
+    <s v="PNC Financial Services"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Regional Banks"/>
+    <s v="Pittsburgh, Pennsylvania"/>
+    <d v="1988-04-30T00:00:00"/>
+    <n v="713676"/>
+  </r>
+  <r>
+    <s v="RL"/>
+    <s v="Polo Ralph Lauren Corp."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Apparel, Accessories &amp; Luxury Goods"/>
+    <s v="New York, New York"/>
+    <d v="2007-02-02T00:00:00"/>
+    <n v="1037038"/>
+  </r>
+  <r>
+    <s v="PPG"/>
+    <s v="PPG Industries"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Specialty Chemicals"/>
+    <s v="Pittsburgh, Pennsylvania"/>
+    <m/>
+    <n v="79879"/>
+  </r>
+  <r>
+    <s v="PPL"/>
+    <s v="PPL Corp."/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Electric Utilities"/>
+    <s v="Allentown, Pennsylvania"/>
+    <m/>
+    <n v="922224"/>
+  </r>
+  <r>
+    <s v="PX"/>
+    <s v="Praxair Inc."/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Industrial Gases"/>
+    <s v="Danbury, Connecticut"/>
+    <d v="1992-07-01T00:00:00"/>
+    <n v="884905"/>
+  </r>
+  <r>
+    <s v="PCLN"/>
+    <s v="Priceline.com Inc"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Internet &amp; Direct Marketing Retail"/>
+    <s v="Norwalk, Connecticut"/>
+    <d v="2009-11-06T00:00:00"/>
+    <n v="1075531"/>
+  </r>
+  <r>
+    <s v="PFG"/>
+    <s v="Principal Financial Group"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Life &amp; Health Insurance"/>
+    <s v="Des Moines, Iowa"/>
+    <d v="2002-07-22T00:00:00"/>
+    <n v="1126328"/>
+  </r>
+  <r>
+    <s v="PG"/>
+    <s v="Procter &amp; Gamble"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Personal Products"/>
+    <s v="Cincinnati, Ohio"/>
+    <m/>
+    <n v="80424"/>
+  </r>
+  <r>
+    <s v="PGR"/>
+    <s v="Progressive Corp."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Property &amp; Casualty Insurance"/>
+    <s v="Mayfield Village, Ohio"/>
+    <d v="1997-08-04T00:00:00"/>
+    <n v="80661"/>
+  </r>
+  <r>
+    <s v="PLD"/>
+    <s v="Prologis"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Industrial REITs"/>
+    <s v="San Francisco, California"/>
+    <d v="2003-07-17T00:00:00"/>
+    <n v="1045609"/>
+  </r>
+  <r>
+    <s v="PRU"/>
+    <s v="Prudential Financial"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Life &amp; Health Insurance"/>
+    <s v="Newark, New Jersey"/>
+    <d v="2002-07-22T00:00:00"/>
+    <n v="1137774"/>
+  </r>
+  <r>
+    <s v="PEG"/>
+    <s v="Public Serv. Enterprise Inc."/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Electric Utilities"/>
+    <s v="Newark, New Jersey"/>
+    <m/>
+    <n v="788784"/>
+  </r>
+  <r>
+    <s v="PSA"/>
+    <s v="Public Storage"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Specialized REITs"/>
+    <s v="Glendale, California"/>
+    <d v="2005-08-19T00:00:00"/>
+    <n v="1393311"/>
+  </r>
+  <r>
+    <s v="PHM"/>
+    <s v="Pulte Homes Inc."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Homebuilding"/>
+    <s v="Atlanta, Georgia"/>
+    <d v="1984-04-30T00:00:00"/>
+    <n v="822416"/>
+  </r>
+  <r>
+    <s v="PVH"/>
+    <s v="PVH Corp."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Apparel, Accessories &amp; Luxury Goods"/>
+    <s v="New York, New York"/>
+    <d v="2013-02-15T00:00:00"/>
+    <n v="78239"/>
+  </r>
+  <r>
+    <s v="QRVO"/>
+    <s v="Qorvo"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Semiconductors"/>
+    <s v="Greensboro, North Carolina"/>
+    <d v="2015-06-11T00:00:00"/>
+    <n v="1604778"/>
+  </r>
+  <r>
+    <s v="PWR"/>
+    <s v="Quanta Services Inc."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Construction &amp; Engineering"/>
+    <s v="Houston, Texas"/>
+    <d v="2009-07-01T00:00:00"/>
+    <n v="1050915"/>
+  </r>
+  <r>
+    <s v="QCOM"/>
+    <s v="QUALCOMM Inc."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Semiconductors"/>
+    <s v="San Diego, California"/>
+    <m/>
+    <n v="804328"/>
+  </r>
+  <r>
+    <s v="DGX"/>
+    <s v="Quest Diagnostics"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Services"/>
+    <s v="Madison, New Jersey"/>
+    <d v="2002-12-12T00:00:00"/>
+    <n v="1022079"/>
+  </r>
+  <r>
+    <s v="RRC"/>
+    <s v="Range Resources Corp."/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Exploration &amp; Production"/>
+    <s v="Fort Worth, Texas"/>
+    <d v="2007-12-21T00:00:00"/>
+    <n v="315852"/>
+  </r>
+  <r>
+    <s v="RJF"/>
+    <s v="Raymond James Financial Inc."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Investment Banking &amp; Brokerage"/>
+    <s v="St. Petersburg, Florida"/>
+    <d v="2017-03-20T00:00:00"/>
+    <n v="720005"/>
+  </r>
+  <r>
+    <s v="RTN"/>
+    <s v="Raytheon Co."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Aerospace &amp; Defense"/>
+    <s v="Waltham, Massachusetts"/>
+    <m/>
+    <n v="1047122"/>
+  </r>
+  <r>
+    <s v="O"/>
+    <s v="Realty Income Corporation"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Retail REITs"/>
+    <s v="San Diego, California"/>
+    <d v="2015-04-07T00:00:00"/>
+    <n v="726728"/>
+  </r>
+  <r>
+    <s v="RHT"/>
+    <s v="Red Hat Inc."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Systems Software"/>
+    <s v="Raleigh, North Carolina"/>
+    <d v="2009-07-27T00:00:00"/>
+    <n v="1087423"/>
+  </r>
+  <r>
+    <s v="REG"/>
+    <s v="Regency Centers Corporation"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Retail REITs"/>
+    <s v="Jacksonville, Florida"/>
+    <d v="2017-03-02T00:00:00"/>
+    <n v="910606"/>
+  </r>
+  <r>
+    <s v="REGN"/>
+    <s v="Regeneron"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Biotechnology"/>
+    <s v="Tarrytown, New York"/>
+    <d v="2013-05-01T00:00:00"/>
+    <n v="872589"/>
+  </r>
+  <r>
+    <s v="RF"/>
+    <s v="Regions Financial Corp."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Regional Banks"/>
+    <s v="Birmingham, Alabama"/>
+    <d v="1998-08-28T00:00:00"/>
+    <n v="1281761"/>
+  </r>
+  <r>
+    <s v="RSG"/>
+    <s v="Republic Services Inc"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Environmental &amp; Facilities Services"/>
+    <s v="Phoenix, Arizona"/>
+    <d v="2008-12-05T00:00:00"/>
+    <n v="1060391"/>
+  </r>
+  <r>
+    <s v="RMD"/>
+    <s v="ResMed"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Equipment"/>
+    <s v="San Diego, California"/>
+    <d v="2017-07-26T00:00:00"/>
+    <n v="943819"/>
+  </r>
+  <r>
+    <s v="RHI"/>
+    <s v="Robert Half International"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Human Resource &amp; Employment Services"/>
+    <s v="Menlo Park, California"/>
+    <d v="2000-12-05T00:00:00"/>
+    <n v="315213"/>
+  </r>
+  <r>
+    <s v="ROK"/>
+    <s v="Rockwell Automation Inc."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Electrical Components &amp; Equipment"/>
+    <s v="Milwaukee, Wisconsin"/>
+    <m/>
+    <n v="1024478"/>
+  </r>
+  <r>
+    <s v="COL"/>
+    <s v="Rockwell Collins"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Aerospace &amp; Defense"/>
+    <s v="Cedar Rapids, Iowa"/>
+    <d v="2001-07-02T00:00:00"/>
+    <n v="1137411"/>
+  </r>
+  <r>
+    <s v="ROP"/>
+    <s v="Roper Technologies"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Industrial Conglomerates"/>
+    <s v="Sarasota, Florida"/>
+    <d v="2009-12-23T00:00:00"/>
+    <n v="882835"/>
+  </r>
+  <r>
+    <s v="ROST"/>
+    <s v="Ross Stores"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Apparel Retail"/>
+    <s v="Pleasanton, California"/>
+    <d v="2009-12-21T00:00:00"/>
+    <n v="745732"/>
+  </r>
+  <r>
+    <s v="RCL"/>
+    <s v="Royal Caribbean Cruises Ltd"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Hotels, Resorts &amp; Cruise Lines"/>
+    <s v="Miami, Florida"/>
+    <d v="2014-12-05T00:00:00"/>
+    <n v="884887"/>
+  </r>
+  <r>
+    <s v="CRM"/>
+    <s v="Salesforce.com"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Internet Software &amp; Services"/>
+    <s v="San Francisco, California"/>
+    <d v="2008-09-15T00:00:00"/>
+    <n v="1108524"/>
+  </r>
+  <r>
+    <s v="SCG"/>
+    <s v="SCANA Corp"/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Multi-Utilities"/>
+    <s v="Cayce, South Carolina"/>
+    <d v="2009-01-02T00:00:00"/>
+    <n v="754737"/>
+  </r>
+  <r>
+    <s v="SLB"/>
+    <s v="Schlumberger Ltd."/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Equipment &amp; Services"/>
+    <s v="Curaçao, Kingdom of the Netherlands"/>
+    <d v="1965-03-31T00:00:00"/>
+    <n v="87347"/>
+  </r>
+  <r>
+    <s v="SNI"/>
+    <s v="Scripps Networks Interactive Inc."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Cable &amp; Satellite"/>
+    <s v="Cincinnati, Ohio"/>
+    <d v="2008-07-01T00:00:00"/>
+    <n v="1430602"/>
+  </r>
+  <r>
+    <s v="STX"/>
+    <s v="Seagate Technology"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Technology Hardware, Storage &amp; Peripherals"/>
+    <s v="Dublin, Ireland"/>
+    <d v="2012-07-02T00:00:00"/>
+    <n v="1137789"/>
+  </r>
+  <r>
+    <s v="SEE"/>
+    <s v="Sealed Air"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Paper Packaging"/>
+    <s v="Elmwood Park, New Jersey"/>
+    <m/>
+    <n v="1012100"/>
+  </r>
+  <r>
+    <s v="SRE"/>
+    <s v="Sempra Energy"/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Multi-Utilities"/>
+    <s v="San Diego, California"/>
+    <m/>
+    <n v="1032208"/>
+  </r>
+  <r>
+    <s v="SHW"/>
+    <s v="Sherwin-Williams"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Specialty Chemicals"/>
+    <s v="Cleveland, Ohio"/>
+    <d v="1964-06-30T00:00:00"/>
+    <n v="89800"/>
+  </r>
+  <r>
+    <s v="SIG"/>
+    <s v="Signet Jewelers"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Specialty Stores"/>
+    <s v="Hamilton, Bermuda"/>
+    <d v="2015-07-29T00:00:00"/>
+    <n v="832988"/>
+  </r>
+  <r>
+    <s v="SPG"/>
+    <s v="Simon Property Group Inc"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Retail REITs"/>
+    <s v="Indianapolis, Indiana"/>
+    <d v="2002-06-26T00:00:00"/>
+    <n v="1063761"/>
+  </r>
+  <r>
+    <s v="SWKS"/>
+    <s v="Skyworks Solutions"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Semiconductors"/>
+    <s v="Woburn, Massachusetts"/>
+    <d v="2015-03-12T00:00:00"/>
+    <n v="4127"/>
+  </r>
+  <r>
+    <s v="SLG"/>
+    <s v="SL Green Realty"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Office REITs"/>
+    <s v="New York, New York"/>
+    <d v="2015-03-20T00:00:00"/>
+    <n v="1040971"/>
+  </r>
+  <r>
+    <s v="SNA"/>
+    <s v="Snap-On Inc."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Household Appliances"/>
+    <s v="Kenosha, Wisconsin"/>
+    <d v="1982-09-30T00:00:00"/>
+    <n v="91440"/>
+  </r>
+  <r>
+    <s v="SO"/>
+    <s v="Southern Co."/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Electric Utilities"/>
+    <s v="Atlanta, Georgia"/>
+    <m/>
+    <n v="92122"/>
+  </r>
+  <r>
+    <s v="LUV"/>
+    <s v="Southwest Airlines"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Airlines"/>
+    <s v="Dallas, Texas"/>
+    <d v="1994-07-01T00:00:00"/>
+    <n v="92380"/>
+  </r>
+  <r>
+    <s v="SPGI"/>
+    <s v="S&amp;P Global, Inc."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Financial Exchanges &amp; Data"/>
+    <s v="New York, New York"/>
+    <m/>
+    <n v="64040"/>
+  </r>
+  <r>
+    <s v="SWK"/>
+    <s v="Stanley Black &amp; Decker"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Household Appliances"/>
+    <s v="New Britain, Connecticut"/>
+    <d v="1982-09-30T00:00:00"/>
+    <n v="93556"/>
+  </r>
+  <r>
+    <s v="SPLS"/>
+    <s v="Staples Inc."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Specialty Stores"/>
+    <s v="Framingham, Massachusetts"/>
+    <d v="1998-10-07T00:00:00"/>
+    <n v="791519"/>
+  </r>
+  <r>
+    <s v="SBUX"/>
+    <s v="Starbucks Corp."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Restaurants"/>
+    <s v="Seattle, Washington"/>
+    <m/>
+    <n v="829224"/>
+  </r>
+  <r>
+    <s v="STT"/>
+    <s v="State Street Corp."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Asset Management &amp; Custody Banks"/>
+    <s v="Boston, Massachusetts"/>
+    <m/>
+    <n v="93751"/>
+  </r>
+  <r>
+    <s v="SRCL"/>
+    <s v="Stericycle Inc"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Environmental &amp; Facilities Services"/>
+    <s v="Lake Forest, Illinois"/>
+    <d v="2008-11-19T00:00:00"/>
+    <n v="861878"/>
+  </r>
+  <r>
+    <s v="SYK"/>
+    <s v="Stryker Corp."/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Equipment"/>
+    <s v="Kalamazoo, Michigan"/>
+    <d v="2000-12-12T00:00:00"/>
+    <n v="310764"/>
+  </r>
+  <r>
+    <s v="STI"/>
+    <s v="SunTrust Banks"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Regional Banks"/>
+    <s v="Atlanta, Georgia"/>
+    <d v="1988-05-31T00:00:00"/>
+    <n v="750556"/>
+  </r>
+  <r>
+    <s v="SYMC"/>
+    <s v="Symantec Corp."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Application Software"/>
+    <s v="Mountain View, California"/>
+    <d v="2003-03-25T00:00:00"/>
+    <n v="849399"/>
+  </r>
+  <r>
+    <s v="SYF"/>
+    <s v="Synchrony Financial"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Consumer Finance"/>
+    <s v="Stamford, Connecticut"/>
+    <d v="2015-11-18T00:00:00"/>
+    <n v="1601712"/>
+  </r>
+  <r>
+    <s v="SNPS"/>
+    <s v="Synopsys Inc."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Application Software"/>
+    <s v="Mountain View, California"/>
+    <d v="2017-03-16T00:00:00"/>
+    <n v="883241"/>
+  </r>
+  <r>
+    <s v="SYY"/>
+    <s v="Sysco Corp."/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Food Distributors"/>
+    <s v="Houston, Texas"/>
+    <d v="1986-12-31T00:00:00"/>
+    <n v="96021"/>
+  </r>
+  <r>
+    <s v="TROW"/>
+    <s v="T. Rowe Price Group"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Asset Management &amp; Custody Banks"/>
+    <s v="Baltimore, Maryland"/>
+    <m/>
+    <n v="1113169"/>
+  </r>
+  <r>
+    <s v="TGT"/>
+    <s v="Target Corp."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="General Merchandise Stores"/>
+    <s v="Minneapolis, Minnesota"/>
+    <d v="1976-12-31T00:00:00"/>
+    <n v="27419"/>
+  </r>
+  <r>
+    <s v="TEL"/>
+    <s v="TE Connectivity Ltd."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Electronic Manufacturing Services"/>
+    <s v="Schaffhausen, Switzerland"/>
+    <d v="2011-10-17T00:00:00"/>
+    <n v="1385157"/>
+  </r>
+  <r>
+    <s v="FTI"/>
+    <s v="TechnipFMC"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Equipment &amp; Services"/>
+    <s v="London, United Kingdom"/>
+    <d v="2009-06-05T00:00:00"/>
+    <n v="1681459"/>
+  </r>
+  <r>
+    <s v="TXN"/>
+    <s v="Texas Instruments"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Semiconductors"/>
+    <s v="Dallas, Texas"/>
+    <m/>
+    <n v="97476"/>
+  </r>
+  <r>
+    <s v="TXT"/>
+    <s v="Textron Inc."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Aerospace &amp; Defense"/>
+    <s v="Providence, Rhode Island"/>
+    <d v="1978-12-31T00:00:00"/>
+    <n v="217346"/>
+  </r>
+  <r>
+    <s v="TMO"/>
+    <s v="Thermo Fisher Scientific"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Equipment"/>
+    <s v="Waltham, Massachusetts"/>
+    <m/>
+    <n v="97745"/>
+  </r>
+  <r>
+    <s v="TIF"/>
+    <s v="Tiffany &amp; Co."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Apparel, Accessories &amp; Luxury Goods"/>
+    <s v="New York, New York"/>
+    <d v="2000-06-21T00:00:00"/>
+    <n v="98246"/>
+  </r>
+  <r>
+    <s v="TWX"/>
+    <s v="Time Warner Inc."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Cable &amp; Satellite"/>
+    <s v="New York, New York"/>
+    <m/>
+    <n v="1105705"/>
+  </r>
+  <r>
+    <s v="TJX"/>
+    <s v="TJX Companies Inc."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Apparel Retail"/>
+    <s v="Framingham, Massachusetts"/>
+    <d v="1985-09-30T00:00:00"/>
+    <n v="109198"/>
+  </r>
+  <r>
+    <s v="TMK"/>
+    <s v="Torchmark Corp."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Life &amp; Health Insurance"/>
+    <s v="McKinney, Texas"/>
+    <d v="1989-04-30T00:00:00"/>
+    <n v="320335"/>
+  </r>
+  <r>
+    <s v="TSS"/>
+    <s v="Total System Services"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Internet Software &amp; Services"/>
+    <s v="Columbus, Georgia"/>
+    <d v="2008-01-02T00:00:00"/>
+    <n v="721683"/>
+  </r>
+  <r>
+    <s v="TSCO"/>
+    <s v="Tractor Supply Company"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Specialty Stores"/>
+    <s v="Brentwood, Tennessee"/>
+    <d v="2014-01-24T00:00:00"/>
+    <n v="916365"/>
+  </r>
+  <r>
+    <s v="TDG"/>
+    <s v="TransDigm Group"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Aerospace &amp; Defense"/>
+    <s v="Cleveland, Ohio"/>
+    <d v="2016-06-03T00:00:00"/>
+    <n v="1260221"/>
+  </r>
+  <r>
+    <s v="TRV"/>
+    <s v="The Travelers Companies Inc."/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Property &amp; Casualty Insurance"/>
+    <s v="New York, New York"/>
+    <d v="2002-08-21T00:00:00"/>
+    <n v="86312"/>
+  </r>
+  <r>
+    <s v="TRIP"/>
+    <s v="TripAdvisor"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Internet &amp; Direct Marketing Retail"/>
+    <s v="Newton, Massachusetts"/>
+    <d v="2011-12-21T00:00:00"/>
+    <n v="1526520"/>
+  </r>
+  <r>
+    <s v="FOXA"/>
+    <s v="Twenty-First Century Fox Class A"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Publishing"/>
+    <s v="New York, New York"/>
+    <d v="2013-07-01T00:00:00"/>
+    <n v="1308161"/>
+  </r>
+  <r>
+    <s v="FOX"/>
+    <s v="Twenty-First Century Fox Class B"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Publishing"/>
+    <s v="New York, New York"/>
+    <d v="2015-09-18T00:00:00"/>
+    <n v="1308161"/>
+  </r>
+  <r>
+    <s v="TSN"/>
+    <s v="Tyson Foods"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Packaged Foods &amp; Meats"/>
+    <s v="Springdale, Arkansas"/>
+    <m/>
+    <n v="100493"/>
+  </r>
+  <r>
+    <s v="UDR"/>
+    <s v="UDR Inc"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Residential REITs"/>
+    <s v="Highlands Ranch, Colorado"/>
+    <d v="2016-03-07T00:00:00"/>
+    <n v="74208"/>
+  </r>
+  <r>
+    <s v="ULTA"/>
+    <s v="Ulta Salon Cosmetics &amp; Fragrance Inc"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Specialty Stores"/>
+    <s v="Bolingbrook, Illinois"/>
+    <d v="2016-04-18T00:00:00"/>
+    <n v="1403568"/>
+  </r>
+  <r>
+    <s v="USB"/>
+    <s v="U.S. Bancorp"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Diversified Banks"/>
+    <s v="Minneapolis, Minnesota"/>
+    <m/>
+    <n v="36104"/>
+  </r>
+  <r>
+    <s v="UA"/>
+    <s v="Under Armour Class C"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Apparel, Accessories &amp; Luxury Goods"/>
+    <s v="Baltimore, Maryland"/>
+    <d v="2014-05-01T00:00:00"/>
+    <n v="1336917"/>
+  </r>
+  <r>
+    <s v="UAA"/>
+    <s v="Under Armour Class A"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Apparel, Accessories &amp; Luxury Goods"/>
+    <s v="Baltimore, Maryland"/>
+    <d v="2016-03-25T00:00:00"/>
+    <n v="1336917"/>
+  </r>
+  <r>
+    <s v="UNP"/>
+    <s v="Union Pacific"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Railroads"/>
+    <s v="Omaha, Nebraska"/>
+    <m/>
+    <n v="100885"/>
+  </r>
+  <r>
+    <s v="UAL"/>
+    <s v="United Continental Holdings"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Airlines"/>
+    <s v="Chicago, Illinois"/>
+    <d v="2015-09-03T00:00:00"/>
+    <n v="100517"/>
+  </r>
+  <r>
+    <s v="UNH"/>
+    <s v="United Health Group Inc."/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Managed Health Care"/>
+    <s v="Minnetonka, Minnesota"/>
+    <d v="1994-07-01T00:00:00"/>
+    <n v="731766"/>
+  </r>
+  <r>
+    <s v="UPS"/>
+    <s v="United Parcel Service"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Air Freight &amp; Logistics"/>
+    <s v="Atlanta, Georgia"/>
+    <d v="2002-07-22T00:00:00"/>
+    <n v="1090727"/>
+  </r>
+  <r>
+    <s v="URI"/>
+    <s v="United Rentals, Inc."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Trading Companies &amp; Distributors"/>
+    <s v="Stamford, Connecticut"/>
+    <d v="2014-09-20T00:00:00"/>
+    <n v="1067701"/>
+  </r>
+  <r>
+    <s v="UTX"/>
+    <s v="United Technologies"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Aerospace &amp; Defense"/>
+    <s v="Hartford, Connecticut"/>
+    <m/>
+    <n v="101829"/>
+  </r>
+  <r>
+    <s v="UHS"/>
+    <s v="Universal Health Services, Inc."/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Facilities"/>
+    <s v="King of Prussia, Pennsylvania"/>
+    <d v="2014-09-20T00:00:00"/>
+    <n v="352915"/>
+  </r>
+  <r>
+    <s v="UNM"/>
+    <s v="Unum Group"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Life &amp; Health Insurance"/>
+    <s v="Chattanooga, Tennessee"/>
+    <d v="1994-03-01T00:00:00"/>
+    <n v="5513"/>
+  </r>
+  <r>
+    <s v="VFC"/>
+    <s v="V.F. Corp."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Apparel, Accessories &amp; Luxury Goods"/>
+    <s v="Greensboro, North Carolina"/>
+    <d v="1979-06-30T00:00:00"/>
+    <n v="103379"/>
+  </r>
+  <r>
+    <s v="VLO"/>
+    <s v="Valero Energy"/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Refining &amp; Marketing"/>
+    <s v="San Antonio, Texas"/>
+    <m/>
+    <n v="1035002"/>
+  </r>
+  <r>
+    <s v="VAR"/>
+    <s v="Varian Medical Systems"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Equipment"/>
+    <s v="Palo Alto, California"/>
+    <d v="2007-02-12T00:00:00"/>
+    <n v="203527"/>
+  </r>
+  <r>
+    <s v="VTR"/>
+    <s v="Ventas Inc"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Health Care REITs"/>
+    <s v="Chicago, Illinois"/>
+    <d v="2009-03-04T00:00:00"/>
+    <n v="740260"/>
+  </r>
+  <r>
+    <s v="VRSN"/>
+    <s v="Verisign Inc."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Internet Software &amp; Services"/>
+    <s v="Dulles, Virginia"/>
+    <d v="2006-02-01T00:00:00"/>
+    <n v="1014473"/>
+  </r>
+  <r>
+    <s v="VRSK"/>
+    <s v="Verisk Analytics"/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Research &amp; Consulting Services"/>
+    <s v="Jersey City, New Jersey"/>
+    <d v="2015-10-08T00:00:00"/>
+    <n v="1442145"/>
+  </r>
+  <r>
+    <s v="VZ"/>
+    <s v="Verizon Communications"/>
+    <s v="reports"/>
+    <x v="10"/>
+    <s v="Integrated Telecommunication Services"/>
+    <s v="New York, New York"/>
+    <d v="1983-11-30T00:00:00"/>
+    <n v="732712"/>
+  </r>
+  <r>
+    <s v="VRTX"/>
+    <s v="Vertex Pharmaceuticals Inc"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Biotechnology"/>
+    <s v="Cambridge, Massachusetts"/>
+    <d v="2013-09-23T00:00:00"/>
+    <n v="875320"/>
+  </r>
+  <r>
+    <s v="VIAB"/>
+    <s v="Viacom Inc."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Cable &amp; Satellite"/>
+    <s v="New York, New York"/>
+    <m/>
+    <n v="1339947"/>
+  </r>
+  <r>
+    <s v="V"/>
+    <s v="Visa Inc."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Internet Software &amp; Services"/>
+    <s v="San Francisco, California"/>
+    <d v="2009-12-21T00:00:00"/>
+    <n v="1403161"/>
+  </r>
+  <r>
+    <s v="VNO"/>
+    <s v="Vornado Realty Trust"/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Office REITs"/>
+    <s v="New York, New York"/>
+    <m/>
+    <n v="899689"/>
+  </r>
+  <r>
+    <s v="VMC"/>
+    <s v="Vulcan Materials"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Construction Materials"/>
+    <s v="Birmingham, Alabama"/>
+    <d v="1999-06-30T00:00:00"/>
+    <n v="1396009"/>
+  </r>
+  <r>
+    <s v="WMT"/>
+    <s v="Wal-Mart Stores"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Hypermarkets &amp; Super Centers"/>
+    <s v="Bentonville, Arkansas"/>
+    <d v="1982-08-31T00:00:00"/>
+    <n v="104169"/>
+  </r>
+  <r>
+    <s v="WBA"/>
+    <s v="Walgreens Boots Alliance"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Drug Retail"/>
+    <s v="Deerfield, Illinois"/>
+    <d v="1979-12-31T00:00:00"/>
+    <n v="1618921"/>
+  </r>
+  <r>
+    <s v="DIS"/>
+    <s v="The Walt Disney Company"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Cable &amp; Satellite"/>
+    <s v="Burbank, California"/>
+    <d v="1976-06-30T00:00:00"/>
+    <n v="1001039"/>
+  </r>
+  <r>
+    <s v="WM"/>
+    <s v="Waste Management Inc."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Environmental &amp; Facilities Services"/>
+    <s v="Houston, Texas"/>
+    <m/>
+    <n v="823768"/>
+  </r>
+  <r>
+    <s v="WAT"/>
+    <s v="Waters Corporation"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Distributors"/>
+    <s v="Milford, Massachusetts"/>
+    <m/>
+    <n v="1000697"/>
+  </r>
+  <r>
+    <s v="WEC"/>
+    <s v="Wec Energy Group Inc"/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Electric Utilities"/>
+    <s v="Milwaukee, Wisconsin"/>
+    <d v="2008-10-31T00:00:00"/>
+    <n v="783325"/>
+  </r>
+  <r>
+    <s v="WFC"/>
+    <s v="Wells Fargo"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Diversified Banks"/>
+    <s v="San Francisco, California"/>
+    <d v="1976-06-30T00:00:00"/>
+    <n v="72971"/>
+  </r>
+  <r>
+    <s v="HCN"/>
+    <s v="Welltower Inc."/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Health Care REITs"/>
+    <s v="Toledo, Ohio"/>
+    <d v="2009-01-30T00:00:00"/>
+    <n v="766704"/>
+  </r>
+  <r>
+    <s v="WDC"/>
+    <s v="Western Digital"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Technology Hardware, Storage &amp; Peripherals"/>
+    <s v="Irvine, California"/>
+    <d v="2009-07-01T00:00:00"/>
+    <n v="106040"/>
+  </r>
+  <r>
+    <s v="WU"/>
+    <s v="Western Union Co"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Internet Software &amp; Services"/>
+    <s v="Englewood, Colorado"/>
+    <m/>
+    <n v="1365135"/>
+  </r>
+  <r>
+    <s v="WRK"/>
+    <s v="WestRock Company"/>
+    <s v="reports"/>
+    <x v="6"/>
+    <s v="Paper Packaging"/>
+    <s v="Richmond, Virginia"/>
+    <m/>
+    <n v="1636023"/>
+  </r>
+  <r>
+    <s v="WY"/>
+    <s v="Weyerhaeuser Corp."/>
+    <s v="reports"/>
+    <x v="7"/>
+    <s v="Specialized REITs"/>
+    <s v="Federal Way, Washington"/>
+    <m/>
+    <n v="106535"/>
+  </r>
+  <r>
+    <s v="WHR"/>
+    <s v="Whirlpool Corp."/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Household Appliances"/>
+    <s v="Benton Harbor, Michigan"/>
+    <m/>
+    <n v="106640"/>
+  </r>
+  <r>
+    <s v="WFM"/>
+    <s v="Whole Foods Market"/>
+    <s v="reports"/>
+    <x v="8"/>
+    <s v="Food Retail"/>
+    <s v="Austin, Texas"/>
+    <m/>
+    <n v="865436"/>
+  </r>
+  <r>
+    <s v="WMB"/>
+    <s v="Williams Cos."/>
+    <s v="reports"/>
+    <x v="9"/>
+    <s v="Oil &amp; Gas Storage &amp; Transportation"/>
+    <s v="Tulsa, Oklahoma"/>
+    <d v="1975-03-31T00:00:00"/>
+    <n v="107263"/>
+  </r>
+  <r>
+    <s v="WLTW"/>
+    <s v="Willis Towers Watson"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Insurance Brokers"/>
+    <s v="London, United Kingdom"/>
+    <d v="2016-01-05T00:00:00"/>
+    <n v="1140536"/>
+  </r>
+  <r>
+    <s v="WYN"/>
+    <s v="Wyndham Worldwide"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Hotels, Resorts &amp; Cruise Lines"/>
+    <s v="Parsippany, New Jersey"/>
+    <m/>
+    <n v="1361658"/>
+  </r>
+  <r>
+    <s v="WYNN"/>
+    <s v="Wynn Resorts Ltd"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Casinos &amp; Gaming"/>
+    <s v="Paradise, Nevada"/>
+    <d v="2008-11-14T00:00:00"/>
+    <n v="1174922"/>
+  </r>
+  <r>
+    <s v="XEL"/>
+    <s v="Xcel Energy Inc"/>
+    <s v="reports"/>
+    <x v="4"/>
+    <s v="Multi-Utilities"/>
+    <s v="Minneapolis, Minnesota"/>
+    <m/>
+    <n v="72903"/>
+  </r>
+  <r>
+    <s v="XRX"/>
+    <s v="Xerox Corp."/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Technology Hardware, Storage &amp; Peripherals"/>
+    <s v="Norwalk, Connecticut"/>
+    <m/>
+    <n v="108772"/>
+  </r>
+  <r>
+    <s v="XLNX"/>
+    <s v="Xilinx Inc"/>
+    <s v="reports"/>
+    <x v="2"/>
+    <s v="Semiconductors"/>
+    <s v="San Jose, California"/>
+    <d v="1999-11-08T00:00:00"/>
+    <n v="743988"/>
+  </r>
+  <r>
+    <s v="XL"/>
+    <s v="XL Capital"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Property &amp; Casualty Insurance"/>
+    <s v="Hamilton, Bermuda"/>
+    <m/>
+    <n v="875159"/>
+  </r>
+  <r>
+    <s v="XYL"/>
+    <s v="Xylem Inc."/>
+    <s v="reports"/>
+    <x v="0"/>
+    <s v="Industrial Machinery"/>
+    <s v="White Plains, New York"/>
+    <d v="2011-11-01T00:00:00"/>
+    <n v="1524472"/>
+  </r>
+  <r>
+    <s v="YUM"/>
+    <s v="Yum! Brands Inc"/>
+    <s v="reports"/>
+    <x v="3"/>
+    <s v="Restaurants"/>
+    <s v="Louisville, Kentucky"/>
+    <d v="1997-10-06T00:00:00"/>
+    <n v="1041061"/>
+  </r>
+  <r>
+    <s v="ZBH"/>
+    <s v="Zimmer Biomet Holdings"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Health Care Equipment"/>
+    <s v="Warsaw, Indiana"/>
+    <d v="2001-08-07T00:00:00"/>
+    <n v="1136869"/>
+  </r>
+  <r>
+    <s v="ZION"/>
+    <s v="Zions Bancorp"/>
+    <s v="reports"/>
+    <x v="5"/>
+    <s v="Regional Banks"/>
+    <s v="Salt Lake City, Utah"/>
+    <m/>
+    <n v="109380"/>
+  </r>
+  <r>
+    <s v="ZTS"/>
+    <s v="Zoetis"/>
+    <s v="reports"/>
+    <x v="1"/>
+    <s v="Pharmaceuticals"/>
+    <s v="Florham Park, New Jersey"/>
+    <d v="2013-06-21T00:00:00"/>
+    <n v="1555280"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{11ADEC39-0BB8-425B-98C0-CEA682927353}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="12">
+        <item x="3"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of GICS Sector" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4626,10 +11190,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E85A75-4A1B-4119-A4BD-B8184BE68A8F}">
+  <dimension ref="A3:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B15" s="6">
+        <v>505</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H506"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17391,7 +24079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
